--- a/cam8_validation_result.xlsx
+++ b/cam8_validation_result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\voies\Desktop\GodEyesProject\CalibPro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C4323E-3AD2-44D1-8036-35D96B55DD4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29ACB4CC-5EDB-48DB-A7F4-7DB0324FF8AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3951" yWindow="4466" windowWidth="24686" windowHeight="13217" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8229" yWindow="3729" windowWidth="24685" windowHeight="13217" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -223,274 +223,274 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="90"/>
                 <c:pt idx="0">
-                  <c:v>-0.67907560475850914</c:v>
+                  <c:v>-0.93210358331270982</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.19219358307691436</c:v>
+                  <c:v>2.4706982588186293</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.33656567645903124</c:v>
+                  <c:v>1.2137077748525371</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.44979948290665561</c:v>
+                  <c:v>0.3526861676327826</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.27468147481204142</c:v>
+                  <c:v>0.59682314361953104</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.77112122256494331</c:v>
+                  <c:v>-8.8623550826469E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.33760108522847077</c:v>
+                  <c:v>-0.98814343332378485</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.56484208632309674</c:v>
+                  <c:v>0.100019988251006</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.99185705271202096</c:v>
+                  <c:v>1.6312792395078759</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.76030537675387677</c:v>
+                  <c:v>-0.81370312643184661</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.38094377162269666</c:v>
+                  <c:v>3.6668200421445363E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.64757088353508152</c:v>
+                  <c:v>-0.49678381279727546</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.16470973355080787</c:v>
+                  <c:v>0.47243209223006488</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.9401118493060494E-2</c:v>
+                  <c:v>-0.18911400522438271</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.88580445563275134</c:v>
+                  <c:v>-6.6580737353433506E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-1.1755004519827708</c:v>
+                  <c:v>0.49407122025468198</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.1877245653022328</c:v>
+                  <c:v>1.4792188711235212</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.9419417318099477</c:v>
+                  <c:v>2.6852791763503774</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.19158580350176635</c:v>
+                  <c:v>-0.23387098609282475</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.8268039470058284E-2</c:v>
+                  <c:v>1.8465378301998499</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-0.29712298688309602</c:v>
+                  <c:v>1.1924471869401714</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.98836308392901628</c:v>
+                  <c:v>2.0383788573781203E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6.2014069644646952E-2</c:v>
+                  <c:v>-0.44871948083800817</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.93633586561645643</c:v>
+                  <c:v>0.67019767951796894</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.0127165553003579E-2</c:v>
+                  <c:v>0.15794961487381443</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.21189529059665801</c:v>
+                  <c:v>0.16530513080988385</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-4.2269842104360578E-2</c:v>
+                  <c:v>2.3857207144992572</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5.4831278528581606E-2</c:v>
+                  <c:v>-0.25699732477414727</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.32446684466640363</c:v>
+                  <c:v>2.0147589380308091</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.30986199755079724</c:v>
+                  <c:v>0.29317527195416915</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.47980830831556887</c:v>
+                  <c:v>0.22511156140672028</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.11726933602540157</c:v>
+                  <c:v>1.8969005277540418E-3</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-1.4460471728962148</c:v>
+                  <c:v>0.53743519865838607</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-1.5704886516377883</c:v>
+                  <c:v>0.24188442061222304</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-9.0953519247705117E-4</c:v>
+                  <c:v>1.1992147033820402</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.4563601480895159</c:v>
+                  <c:v>2.319390279111758</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.55035463072226776</c:v>
+                  <c:v>1.5776227579890474</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-0.26781002610141513</c:v>
+                  <c:v>2.0815677732284712</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-0.67284430485142366</c:v>
+                  <c:v>0.17961496830048418</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.2960073827330234</c:v>
+                  <c:v>0.32238086232428032</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-3.1685844968706078E-2</c:v>
+                  <c:v>-0.53747657980511576</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-0.63931152667692004</c:v>
+                  <c:v>-0.18368052050573169</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.63570731936442826</c:v>
+                  <c:v>0.91547913343856635</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.3432107575872578</c:v>
+                  <c:v>0.69783737517582267</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.49175404318066285</c:v>
+                  <c:v>3.3781083878807294</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.36501067056860848</c:v>
+                  <c:v>1.6236290466799801</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.10188054550553716</c:v>
+                  <c:v>1.0288576538264351</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.75395522961980532</c:v>
+                  <c:v>0.19620743108498573</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2.0144797959110292</c:v>
+                  <c:v>0.52920584980074636</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.36198985290911878</c:v>
+                  <c:v>2.0418151499598025E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-1.0136790783076322</c:v>
+                  <c:v>-0.22336484089919395</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-1.5027947579351348</c:v>
+                  <c:v>-0.49391796792451714</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-5.679801204450996E-2</c:v>
+                  <c:v>0.37287901195622908</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.1464054238663266</c:v>
+                  <c:v>2.322372448574697</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.49797538292659738</c:v>
+                  <c:v>0.93647604906891502</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-0.94804303234650433</c:v>
+                  <c:v>0.81464871731850508</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-0.48522851172629089</c:v>
+                  <c:v>0.34561777804537996</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-6.8540782355285046E-2</c:v>
+                  <c:v>-0.57610106441325115</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-0.50265750500193462</c:v>
+                  <c:v>1.0137090778525817</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-0.44904526409345635</c:v>
+                  <c:v>0.32635022135718827</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>7.5205505831945629E-3</c:v>
+                  <c:v>0.15807324621482621</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2.4499847338120162E-2</c:v>
+                  <c:v>0.63453340059459151</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.14469495654157072</c:v>
+                  <c:v>2.0394110106785774</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.44557148075364239</c:v>
+                  <c:v>0.94814618441932907</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.53965724224235601</c:v>
+                  <c:v>1.5205345866716016</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.28759512025271761</c:v>
+                  <c:v>-9.6603451192095235E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.52431651490087461</c:v>
+                  <c:v>0.80719263467926794</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>9.839315794124559E-3</c:v>
+                  <c:v>0.20826500919019963</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-1.6031030080034725</c:v>
+                  <c:v>-0.31034759766316711</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-1.6664713079080684</c:v>
+                  <c:v>-1.0253626251019341</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-0.21760419136307974</c:v>
+                  <c:v>-0.24781191141528325</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.26463578684251843</c:v>
+                  <c:v>0.34733546630332057</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>-0.47764714809954967</c:v>
+                  <c:v>0.4694602697109076</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-1.4841139380100685</c:v>
+                  <c:v>-1.4661661416885181</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-0.41819978432613425</c:v>
+                  <c:v>-0.58371966699087352</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-1.1087679552779264</c:v>
+                  <c:v>-0.91122446846975436</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-0.37753924413755158</c:v>
+                  <c:v>-0.68885236196274491</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-0.58781962646617103</c:v>
+                  <c:v>-1.2025759592884242</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.67177963060794355</c:v>
+                  <c:v>-0.89650371800917128</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.3905770295395996</c:v>
+                  <c:v>0.95675808205260182</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.37156632405913115</c:v>
+                  <c:v>2.1500314792342579</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>-0.39263253535000331</c:v>
+                  <c:v>0.52438634295049269</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.61877469620958436</c:v>
+                  <c:v>0.29822108919870516</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-0.45573375227058932</c:v>
+                  <c:v>0.72847137357985048</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1.1181079354996655</c:v>
+                  <c:v>-0.97476328332140838</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-4.0950787483780005E-2</c:v>
+                  <c:v>-1.6110018754225166</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-2.218011421666688</c:v>
+                  <c:v>-2.8091597532575179</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-2.3313554154733538</c:v>
+                  <c:v>-2.1920235617485559</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-0.97193467762690489</c:v>
+                  <c:v>-2.0052695117260555</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-0.22043889982569453</c:v>
+                  <c:v>-1.6702840243815444</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2259,48 +2259,48 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>2555.5</v>
+        <v>2549.1999999999998</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2554.8209243952415</v>
+        <v>2548.2678964166871</v>
       </c>
       <c r="D2">
-        <v>2.7919185344971325E-2</v>
+        <v>5.7930728605595401E-2</v>
       </c>
       <c r="E2">
-        <v>-0.67907560475850914</v>
+        <v>-0.93210358331270982</v>
       </c>
       <c r="F2">
-        <v>2.7919185344971325E-2</v>
+        <v>5.7930728605595401E-2</v>
       </c>
       <c r="H2" t="s">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.62831438426094088</v>
+        <v>0.89443274610227186</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>2555.5</v>
+        <v>2549.1999999999998</v>
       </c>
       <c r="B3">
-        <v>-16.07</v>
+        <v>-15.92</v>
       </c>
       <c r="C3">
-        <v>2555.6921935830769</v>
+        <v>2551.6706982588184</v>
       </c>
       <c r="D3">
-        <v>-16.074771994332455</v>
+        <v>-16.386806487561262</v>
       </c>
       <c r="E3">
-        <v>0.19219358307691436</v>
+        <v>2.4706982588186293</v>
       </c>
       <c r="F3">
-        <v>-4.7719943324544545E-3</v>
+        <v>-0.46680648756126253</v>
       </c>
       <c r="H3" t="s">
         <v>1</v>
@@ -2311,1780 +2311,1780 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>2555.5</v>
+        <v>2549.1999999999998</v>
       </c>
       <c r="B4">
-        <v>-14.03</v>
+        <v>-14.1</v>
       </c>
       <c r="C4">
-        <v>2555.163434323541</v>
+        <v>2550.4137077748524</v>
       </c>
       <c r="D4">
-        <v>-14.021511594952001</v>
+        <v>-14.490188776608319</v>
       </c>
       <c r="E4">
-        <v>-0.33656567645903124</v>
+        <v>1.2137077748525371</v>
       </c>
       <c r="F4">
-        <v>8.4884050479985262E-3</v>
+        <v>-0.39018877660831919</v>
       </c>
       <c r="H4" t="s">
         <v>2</v>
       </c>
       <c r="I4">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>2555.5</v>
+        <v>2549.1999999999998</v>
       </c>
       <c r="B5">
-        <v>-12</v>
+        <v>-12.07</v>
       </c>
       <c r="C5">
-        <v>2555.9497994829067</v>
+        <v>2549.5526861676326</v>
       </c>
       <c r="D5">
-        <v>-11.978194295961815</v>
+        <v>-12.433933403421314</v>
       </c>
       <c r="E5">
-        <v>0.44979948290665561</v>
+        <v>0.3526861676327826</v>
       </c>
       <c r="F5">
-        <v>2.1805704038184714E-2</v>
+        <v>-0.36393340342131353</v>
       </c>
       <c r="H5" t="s">
         <v>3</v>
       </c>
       <c r="I5">
-        <v>0.96666666666666667</v>
+        <v>0.85555555555555551</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>2555.5</v>
+        <v>2549.1999999999998</v>
       </c>
       <c r="B6">
-        <v>-10</v>
+        <v>-9.9</v>
       </c>
       <c r="C6">
-        <v>2555.225318525188</v>
+        <v>2549.7968231436193</v>
       </c>
       <c r="D6">
-        <v>-9.9681546793296913</v>
+        <v>-10.707815295952546</v>
       </c>
       <c r="E6">
-        <v>-0.27468147481204142</v>
+        <v>0.59682314361953104</v>
       </c>
       <c r="F6">
-        <v>3.1845320670308652E-2</v>
+        <v>-0.80781529595254575</v>
       </c>
       <c r="H6" t="s">
         <v>4</v>
       </c>
       <c r="I6">
-        <v>1.6664713079080684</v>
+        <v>2.3857207144992572</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>2555.5</v>
+        <v>2549.1999999999998</v>
       </c>
       <c r="B7">
-        <v>-7.97</v>
+        <v>-8.0500000000000007</v>
       </c>
       <c r="C7">
-        <v>2556.2711212225649</v>
+        <v>2549.1113764491733</v>
       </c>
       <c r="D7">
-        <v>-7.9567264601673733</v>
+        <v>-8.8175919711898185</v>
       </c>
       <c r="E7">
-        <v>0.77112122256494331</v>
+        <v>-8.8623550826469E-2</v>
       </c>
       <c r="F7">
-        <v>1.3273539832626469E-2</v>
+        <v>-0.76759197118981781</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>2555.5</v>
+        <v>2549.1999999999998</v>
       </c>
       <c r="B8">
-        <v>-5.97</v>
+        <v>-6</v>
       </c>
       <c r="C8">
-        <v>2555.1623989147715</v>
+        <v>2548.211856566676</v>
       </c>
       <c r="D8">
-        <v>-5.9402278540468636</v>
+        <v>-6.8003912659325678</v>
       </c>
       <c r="E8">
-        <v>-0.33760108522847077</v>
+        <v>-0.98814343332378485</v>
       </c>
       <c r="F8">
-        <v>2.9772145953136153E-2</v>
+        <v>-0.80039126593256782</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>2555.5</v>
+        <v>2549.1999999999998</v>
       </c>
       <c r="B9">
-        <v>-3.95</v>
+        <v>-4</v>
       </c>
       <c r="C9">
-        <v>2554.9351579136769</v>
+        <v>2549.3000199882508</v>
       </c>
       <c r="D9">
-        <v>-3.9286548180191438</v>
+        <v>-4.7843272704031241</v>
       </c>
       <c r="E9">
-        <v>-0.56484208632309674</v>
+        <v>0.100019988251006</v>
       </c>
       <c r="F9">
-        <v>2.1345181980856331E-2</v>
+        <v>-0.78432727040312411</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>2555.5</v>
+        <v>2549.1999999999998</v>
       </c>
       <c r="B10">
-        <v>-2</v>
+        <v>-2.0299999999999998</v>
       </c>
       <c r="C10">
-        <v>2554.508142947288</v>
+        <v>2550.8312792395077</v>
       </c>
       <c r="D10">
-        <v>-1.9316954065696965</v>
+        <v>-2.7911019221560616</v>
       </c>
       <c r="E10">
-        <v>-0.99185705271202096</v>
+        <v>1.6312792395078759</v>
       </c>
       <c r="F10">
-        <v>6.8304593430303484E-2</v>
+        <v>-0.76110192215606176</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>2555.5</v>
+        <v>2549.1999999999998</v>
       </c>
       <c r="B11">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>2554.7396946232461</v>
+        <v>2548.386296873568</v>
       </c>
       <c r="D11">
-        <v>9.5602322650269494E-2</v>
+        <v>-0.75082139200474196</v>
       </c>
       <c r="E11">
-        <v>-0.76030537675387677</v>
+        <v>-0.81370312643184661</v>
       </c>
       <c r="F11">
-        <v>4.5602322650269492E-2</v>
+        <v>-0.75082139200474196</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>2555.5</v>
+        <v>2549.1999999999998</v>
       </c>
       <c r="B12">
-        <v>2.0499999999999998</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>2555.1190562283773</v>
+        <v>2549.2366682004213</v>
       </c>
       <c r="D12">
-        <v>2.0864426083144605</v>
+        <v>1.2630079177784634</v>
       </c>
       <c r="E12">
-        <v>-0.38094377162269666</v>
+        <v>3.6668200421445363E-2</v>
       </c>
       <c r="F12">
-        <v>3.6442608314460667E-2</v>
+        <v>-0.73699208222153656</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>2555.5</v>
+        <v>2549.1999999999998</v>
       </c>
       <c r="B13">
-        <v>4.03</v>
+        <v>4</v>
       </c>
       <c r="C13">
-        <v>2554.8524291164649</v>
+        <v>2548.7032161872025</v>
       </c>
       <c r="D13">
-        <v>4.0773820083411927</v>
+        <v>3.2500470284899792</v>
       </c>
       <c r="E13">
-        <v>-0.64757088353508152</v>
+        <v>-0.49678381279727546</v>
       </c>
       <c r="F13">
-        <v>4.7382008341192439E-2</v>
+        <v>-0.74995297151002083</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>2555.5</v>
+        <v>2549.1999999999998</v>
       </c>
       <c r="B14">
-        <v>6.05</v>
+        <v>6.03</v>
       </c>
       <c r="C14">
-        <v>2555.6647097335508</v>
+        <v>2549.6724320922299</v>
       </c>
       <c r="D14">
-        <v>6.0992961260551493</v>
+        <v>5.2552192763616654</v>
       </c>
       <c r="E14">
-        <v>0.16470973355080787</v>
+        <v>0.47243209223006488</v>
       </c>
       <c r="F14">
-        <v>4.9296126055149436E-2</v>
+        <v>-0.77478072363833483</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>2555.5</v>
+        <v>2549.1999999999998</v>
       </c>
       <c r="B15">
-        <v>8.0299999999999994</v>
+        <v>8</v>
       </c>
       <c r="C15">
-        <v>2555.5394011184931</v>
+        <v>2549.0108859947754</v>
       </c>
       <c r="D15">
-        <v>8.08162942153219</v>
+        <v>7.2265659542652347</v>
       </c>
       <c r="E15">
-        <v>3.9401118493060494E-2</v>
+        <v>-0.18911400522438271</v>
       </c>
       <c r="F15">
-        <v>5.1629421532190634E-2</v>
+        <v>-0.77343404573476526</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>2555.5</v>
+        <v>2549.1999999999998</v>
       </c>
       <c r="B16">
-        <v>10.050000000000001</v>
+        <v>10</v>
       </c>
       <c r="C16">
-        <v>2554.6141955443672</v>
+        <v>2549.1334192626464</v>
       </c>
       <c r="D16">
-        <v>10.069641655435539</v>
+        <v>9.2163393887054212</v>
       </c>
       <c r="E16">
-        <v>-0.88580445563275134</v>
+        <v>-6.6580737353433506E-2</v>
       </c>
       <c r="F16">
-        <v>1.9641655435538752E-2</v>
+        <v>-0.78366061129457876</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>2555.5</v>
+        <v>2549.1999999999998</v>
       </c>
       <c r="B17">
-        <v>12.03</v>
+        <v>12</v>
       </c>
       <c r="C17">
-        <v>2554.3244995480172</v>
+        <v>2549.6940712202545</v>
       </c>
       <c r="D17">
-        <v>12.05107286092856</v>
+        <v>11.205745177939805</v>
       </c>
       <c r="E17">
-        <v>-1.1755004519827708</v>
+        <v>0.49407122025468198</v>
       </c>
       <c r="F17">
-        <v>2.1072860928560644E-2</v>
+        <v>-0.7942548220601946</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>2555.5</v>
+        <v>2549.1999999999998</v>
       </c>
       <c r="B18">
-        <v>14.05</v>
+        <v>14</v>
       </c>
       <c r="C18">
-        <v>2555.6877245653022</v>
+        <v>2550.6792188711233</v>
       </c>
       <c r="D18">
-        <v>14.049082924036734</v>
+        <v>13.158013872488004</v>
       </c>
       <c r="E18">
-        <v>0.1877245653022328</v>
+        <v>1.4792188711235212</v>
       </c>
       <c r="F18">
-        <v>-9.1707596326706664E-4</v>
+        <v>-0.84198612751199597</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>2555.5</v>
+        <v>2549.1999999999998</v>
       </c>
       <c r="B19">
-        <v>16.02</v>
+        <v>16</v>
       </c>
       <c r="C19">
-        <v>2557.4419417318099</v>
+        <v>2551.8852791763502</v>
       </c>
       <c r="D19">
-        <v>15.983814680246352</v>
+        <v>15.128503948890485</v>
       </c>
       <c r="E19">
-        <v>1.9419417318099477</v>
+        <v>2.6852791763503774</v>
       </c>
       <c r="F19">
-        <v>-3.6185319753647249E-2</v>
+        <v>-0.87149605110951534</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>2655.2</v>
+        <v>2648.9</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20">
-        <v>2655.0084141964981</v>
+        <v>2648.6661290139073</v>
       </c>
       <c r="D20">
-        <v>1.5850445129578433E-2</v>
+        <v>6.0067109468942073E-2</v>
       </c>
       <c r="E20">
-        <v>-0.19158580350176635</v>
+        <v>-0.23387098609282475</v>
       </c>
       <c r="F20">
-        <v>1.5850445129578433E-2</v>
+        <v>6.0067109468942073E-2</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>2655.2</v>
+        <v>2648.9</v>
       </c>
       <c r="B21">
-        <v>-16.07</v>
+        <v>-15.9</v>
       </c>
       <c r="C21">
-        <v>2655.2182680394699</v>
+        <v>2650.7465378301999</v>
       </c>
       <c r="D21">
-        <v>-16.069687244583154</v>
+        <v>-15.887031574026894</v>
       </c>
       <c r="E21">
-        <v>1.8268039470058284E-2</v>
+        <v>1.8465378301998499</v>
       </c>
       <c r="F21">
-        <v>3.1275541684649966E-4</v>
+        <v>1.2968425973106434E-2</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>2655.2</v>
+        <v>2648.9</v>
       </c>
       <c r="B22">
         <v>-14.03</v>
       </c>
       <c r="C22">
-        <v>2654.9028770131167</v>
+        <v>2650.0924471869403</v>
       </c>
       <c r="D22">
-        <v>-14.020535530859336</v>
+        <v>-14.039382138877524</v>
       </c>
       <c r="E22">
-        <v>-0.29712298688309602</v>
+        <v>1.1924471869401714</v>
       </c>
       <c r="F22">
-        <v>9.4644691406635673E-3</v>
+        <v>-9.3821388775250369E-3</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>2655.2</v>
+        <v>2648.9</v>
       </c>
       <c r="B23">
-        <v>-12</v>
+        <v>-12.03</v>
       </c>
       <c r="C23">
-        <v>2656.1883630839288</v>
+        <v>2648.9203837885739</v>
       </c>
       <c r="D23">
-        <v>-12.006148658335627</v>
+        <v>-12.037703112857415</v>
       </c>
       <c r="E23">
-        <v>0.98836308392901628</v>
+        <v>2.0383788573781203E-2</v>
       </c>
       <c r="F23">
-        <v>-6.1486583356273883E-3</v>
+        <v>-7.7031128574152063E-3</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>2655.2</v>
+        <v>2648.9</v>
       </c>
       <c r="B24">
-        <v>-10</v>
+        <v>-10.029999999999999</v>
       </c>
       <c r="C24">
-        <v>2655.2620140696445</v>
+        <v>2648.4512805191621</v>
       </c>
       <c r="D24">
-        <v>-9.9721798058712903</v>
+        <v>-10.038820502382125</v>
       </c>
       <c r="E24">
-        <v>6.2014069644646952E-2</v>
+        <v>-0.44871948083800817</v>
       </c>
       <c r="F24">
-        <v>2.782019412870973E-2</v>
+        <v>-8.8205023821252837E-3</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>2655.2</v>
+        <v>2648.9</v>
       </c>
       <c r="B25">
-        <v>-7.95</v>
+        <v>-8.0299999999999994</v>
       </c>
       <c r="C25">
-        <v>2656.1363358656163</v>
+        <v>2649.5701976795181</v>
       </c>
       <c r="D25">
-        <v>-7.9604770671254723</v>
+        <v>-8.0167597583633885</v>
       </c>
       <c r="E25">
-        <v>0.93633586561645643</v>
+        <v>0.67019767951796894</v>
       </c>
       <c r="F25">
-        <v>-1.0477067125472139E-2</v>
+        <v>1.3240241636610861E-2</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>2655.2</v>
+        <v>2648.9</v>
       </c>
       <c r="B26">
         <v>-6</v>
       </c>
       <c r="C26">
-        <v>2655.2701271655528</v>
+        <v>2649.0579496148739</v>
       </c>
       <c r="D26">
-        <v>-5.9679850214079071</v>
+        <v>-5.9953716806141637</v>
       </c>
       <c r="E26">
-        <v>7.0127165553003579E-2</v>
+        <v>0.15794961487381443</v>
       </c>
       <c r="F26">
-        <v>3.2014978592092902E-2</v>
+        <v>4.6283193858362992E-3</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>2655.2</v>
+        <v>2648.9</v>
       </c>
       <c r="B27">
-        <v>-3.95</v>
+        <v>-4</v>
       </c>
       <c r="C27">
-        <v>2655.4118952905965</v>
+        <v>2649.06530513081</v>
       </c>
       <c r="D27">
-        <v>-3.9363565709644432</v>
+        <v>-3.9900710651176574</v>
       </c>
       <c r="E27">
-        <v>0.21189529059665801</v>
+        <v>0.16530513080988385</v>
       </c>
       <c r="F27">
-        <v>1.3643429035556931E-2</v>
+        <v>9.9289348823425883E-3</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>2655.2</v>
+        <v>2648.9</v>
       </c>
       <c r="B28">
-        <v>-2</v>
+        <v>-2.0299999999999998</v>
       </c>
       <c r="C28">
-        <v>2655.1577301578955</v>
+        <v>2651.2857207144993</v>
       </c>
       <c r="D28">
-        <v>-1.9415072899211581</v>
+        <v>-1.9847381832796314</v>
       </c>
       <c r="E28">
-        <v>-4.2269842104360578E-2</v>
+        <v>2.3857207144992572</v>
       </c>
       <c r="F28">
-        <v>5.8492710078841936E-2</v>
+        <v>4.5261816720368442E-2</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>2655.2</v>
+        <v>2648.9</v>
       </c>
       <c r="B29">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="C29">
-        <v>2655.2548312785284</v>
+        <v>2648.6430026752259</v>
       </c>
       <c r="D29">
-        <v>8.5670519776076204E-2</v>
+        <v>4.7955191455501443E-2</v>
       </c>
       <c r="E29">
-        <v>5.4831278528581606E-2</v>
+        <v>-0.25699732477414727</v>
       </c>
       <c r="F29">
-        <v>3.5670519776076201E-2</v>
+        <v>4.7955191455501443E-2</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>2655.2</v>
+        <v>2648.9</v>
       </c>
       <c r="B30">
-        <v>2.0499999999999998</v>
+        <v>2</v>
       </c>
       <c r="C30">
-        <v>2655.5244668446662</v>
+        <v>2650.9147589380309</v>
       </c>
       <c r="D30">
-        <v>2.0811204580194635</v>
+        <v>2.029944302871491</v>
       </c>
       <c r="E30">
-        <v>0.32446684466640363</v>
+        <v>2.0147589380308091</v>
       </c>
       <c r="F30">
-        <v>3.1120458019463726E-2</v>
+        <v>2.9944302871490969E-2</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>2655.2</v>
+        <v>2648.9</v>
       </c>
       <c r="B31">
-        <v>4.03</v>
+        <v>4</v>
       </c>
       <c r="C31">
-        <v>2655.5098619975506</v>
+        <v>2649.1931752719543</v>
       </c>
       <c r="D31">
-        <v>4.0843188324385986</v>
+        <v>4.0455258608335383</v>
       </c>
       <c r="E31">
-        <v>0.30986199755079724</v>
+        <v>0.29317527195416915</v>
       </c>
       <c r="F31">
-        <v>5.4318832438598363E-2</v>
+        <v>4.5525860833538268E-2</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>2655.2</v>
+        <v>2648.9</v>
       </c>
       <c r="B32">
-        <v>6.05</v>
+        <v>6</v>
       </c>
       <c r="C32">
-        <v>2655.6798083083154</v>
+        <v>2649.1251115614068</v>
       </c>
       <c r="D32">
-        <v>6.0897009683864978</v>
+        <v>6.0367093799032139</v>
       </c>
       <c r="E32">
-        <v>0.47980830831556887</v>
+        <v>0.22511156140672028</v>
       </c>
       <c r="F32">
-        <v>3.9700968386497948E-2</v>
+        <v>3.6709379903213879E-2</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>2655.2</v>
+        <v>2648.9</v>
       </c>
       <c r="B33">
         <v>8.0299999999999994</v>
       </c>
       <c r="C33">
-        <v>2655.3172693360252</v>
+        <v>2648.9018969005278</v>
       </c>
       <c r="D33">
-        <v>8.066207644108756</v>
+        <v>8.0318973629503159</v>
       </c>
       <c r="E33">
-        <v>0.11726933602540157</v>
+        <v>1.8969005277540418E-3</v>
       </c>
       <c r="F33">
-        <v>3.6207644108756654E-2</v>
+        <v>1.8973629503165057E-3</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>2655.2</v>
+        <v>2648.9</v>
       </c>
       <c r="B34">
-        <v>10.050000000000001</v>
+        <v>10</v>
       </c>
       <c r="C34">
-        <v>2653.7539528271036</v>
+        <v>2649.4374351986585</v>
       </c>
       <c r="D34">
-        <v>10.06376699261317</v>
+        <v>9.9863710562373704</v>
       </c>
       <c r="E34">
-        <v>-1.4460471728962148</v>
+        <v>0.53743519865838607</v>
       </c>
       <c r="F34">
-        <v>1.3766992613168938E-2</v>
+        <v>-1.3628943762629575E-2</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>2655.2</v>
+        <v>2648.9</v>
       </c>
       <c r="B35">
-        <v>12.03</v>
+        <v>12</v>
       </c>
       <c r="C35">
-        <v>2653.629511348362</v>
+        <v>2649.1418844206123</v>
       </c>
       <c r="D35">
-        <v>12.048618717662697</v>
+        <v>11.958448849134621</v>
       </c>
       <c r="E35">
-        <v>-1.5704886516377883</v>
+        <v>0.24188442061222304</v>
       </c>
       <c r="F35">
-        <v>1.8618717662697293E-2</v>
+        <v>-4.1551150865378972E-2</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>2655.2</v>
+        <v>2648.9</v>
       </c>
       <c r="B36">
-        <v>14.05</v>
+        <v>14.03</v>
       </c>
       <c r="C36">
-        <v>2655.1990904648073</v>
+        <v>2650.0992147033821</v>
       </c>
       <c r="D36">
-        <v>14.044632885580299</v>
+        <v>13.928436553312576</v>
       </c>
       <c r="E36">
-        <v>-9.0953519247705117E-4</v>
+        <v>1.1992147033820402</v>
       </c>
       <c r="F36">
-        <v>-5.367114419701835E-3</v>
+        <v>-0.10156344668742356</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>2655.2</v>
+        <v>2648.9</v>
       </c>
       <c r="B37">
-        <v>16.02</v>
+        <v>15.97</v>
       </c>
       <c r="C37">
-        <v>2656.6563601480893</v>
+        <v>2651.2193902791118</v>
       </c>
       <c r="D37">
-        <v>15.977417518934519</v>
+        <v>15.855076576359524</v>
       </c>
       <c r="E37">
-        <v>1.4563601480895159</v>
+        <v>2.319390279111758</v>
       </c>
       <c r="F37">
-        <v>-4.2582481065480238E-2</v>
+        <v>-0.11492342364047659</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>2754.9</v>
+        <v>2748.6</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="C38">
-        <v>2755.4503546307224</v>
+        <v>2750.177622757989</v>
       </c>
       <c r="D38">
-        <v>1.4324671641742778E-2</v>
+        <v>5.7207830348423291E-2</v>
       </c>
       <c r="E38">
-        <v>0.55035463072226776</v>
+        <v>1.5776227579890474</v>
       </c>
       <c r="F38">
-        <v>1.4324671641742778E-2</v>
+        <v>5.7207830348423291E-2</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>2754.9</v>
+        <v>2748.6</v>
       </c>
       <c r="B39">
-        <v>-16.07</v>
+        <v>-15.9</v>
       </c>
       <c r="C39">
-        <v>2754.6321899738987</v>
+        <v>2750.6815677732284</v>
       </c>
       <c r="D39">
-        <v>-16.067752223718738</v>
+        <v>-15.89693165834637</v>
       </c>
       <c r="E39">
-        <v>-0.26781002610141513</v>
+        <v>2.0815677732284712</v>
       </c>
       <c r="F39">
-        <v>2.2477762812620483E-3</v>
+        <v>3.0683416536305685E-3</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40">
-        <v>2754.9</v>
+        <v>2748.6</v>
       </c>
       <c r="B40">
         <v>-14.03</v>
       </c>
       <c r="C40">
-        <v>2754.2271556951487</v>
+        <v>2748.7796149683004</v>
       </c>
       <c r="D40">
-        <v>-14.022399934851592</v>
+        <v>-14.03645636223276</v>
       </c>
       <c r="E40">
-        <v>-0.67284430485142366</v>
+        <v>0.17961496830048418</v>
       </c>
       <c r="F40">
-        <v>7.6000651484076087E-3</v>
+        <v>-6.456362232761137E-3</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41">
-        <v>2754.9</v>
+        <v>2748.6</v>
       </c>
       <c r="B41">
-        <v>-12</v>
+        <v>-12.03</v>
       </c>
       <c r="C41">
-        <v>2756.1960073827331</v>
+        <v>2748.9223808623242</v>
       </c>
       <c r="D41">
-        <v>-11.984060610257801</v>
+        <v>-12.056083741540041</v>
       </c>
       <c r="E41">
-        <v>1.2960073827330234</v>
+        <v>0.32238086232428032</v>
       </c>
       <c r="F41">
-        <v>1.5939389742198884E-2</v>
+        <v>-2.6083741540041672E-2</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42">
-        <v>2754.9</v>
+        <v>2748.6</v>
       </c>
       <c r="B42">
-        <v>-10</v>
+        <v>-10.029999999999999</v>
       </c>
       <c r="C42">
-        <v>2754.8683141550314</v>
+        <v>2748.0625234201948</v>
       </c>
       <c r="D42">
-        <v>-9.9848630211643883</v>
+        <v>-10.058494344307894</v>
       </c>
       <c r="E42">
-        <v>-3.1685844968706078E-2</v>
+        <v>-0.53747657980511576</v>
       </c>
       <c r="F42">
-        <v>1.5136978835611714E-2</v>
+        <v>-2.8494344307894437E-2</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43">
-        <v>2754.9</v>
+        <v>2748.6</v>
       </c>
       <c r="B43">
-        <v>-7.95</v>
+        <v>-8.0299999999999994</v>
       </c>
       <c r="C43">
-        <v>2754.2606884733232</v>
+        <v>2748.4163194794942</v>
       </c>
       <c r="D43">
-        <v>-7.9616841769602873</v>
+        <v>-8.0361932117295058</v>
       </c>
       <c r="E43">
-        <v>-0.63931152667692004</v>
+        <v>-0.18368052050573169</v>
       </c>
       <c r="F43">
-        <v>-1.1684176960287118E-2</v>
+        <v>-6.193211729506487E-3</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44">
-        <v>2754.9</v>
+        <v>2748.6</v>
       </c>
       <c r="B44">
         <v>-6</v>
       </c>
       <c r="C44">
-        <v>2755.5357073193645</v>
+        <v>2749.5154791334385</v>
       </c>
       <c r="D44">
-        <v>-5.9874818316807685</v>
+        <v>-6.0173379160715257</v>
       </c>
       <c r="E44">
-        <v>0.63570731936442826</v>
+        <v>0.91547913343856635</v>
       </c>
       <c r="F44">
-        <v>1.2518168319231471E-2</v>
+        <v>-1.7337916071525683E-2</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45">
-        <v>2754.9</v>
+        <v>2748.6</v>
       </c>
       <c r="B45">
-        <v>-3.95</v>
+        <v>-4.03</v>
       </c>
       <c r="C45">
-        <v>2756.2432107575873</v>
+        <v>2749.2978373751757</v>
       </c>
       <c r="D45">
-        <v>-3.9478269874760952</v>
+        <v>-4.0160789855207746</v>
       </c>
       <c r="E45">
-        <v>1.3432107575872578</v>
+        <v>0.69783737517582267</v>
       </c>
       <c r="F45">
-        <v>2.1730125239050047E-3</v>
+        <v>1.3921014479225668E-2</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46">
-        <v>2754.9</v>
+        <v>2748.6</v>
       </c>
       <c r="B46">
         <v>-2</v>
       </c>
       <c r="C46">
-        <v>2755.3917540431808</v>
+        <v>2751.9781083878806</v>
       </c>
       <c r="D46">
-        <v>-1.950173469853149</v>
+        <v>-1.9901749779050768</v>
       </c>
       <c r="E46">
-        <v>0.49175404318066285</v>
+        <v>3.3781083878807294</v>
       </c>
       <c r="F46">
-        <v>4.9826530146851011E-2</v>
+        <v>9.825022094923197E-3</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47">
-        <v>2754.9</v>
+        <v>2748.6</v>
       </c>
       <c r="B47">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="C47">
-        <v>2755.2650106705687</v>
+        <v>2750.2236290466799</v>
       </c>
       <c r="D47">
-        <v>8.4326949504721083E-2</v>
+        <v>2.9546245020152483E-2</v>
       </c>
       <c r="E47">
-        <v>0.36501067056860848</v>
+        <v>1.6236290466799801</v>
       </c>
       <c r="F47">
-        <v>3.432694950472108E-2</v>
+        <v>2.9546245020152483E-2</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48">
-        <v>2754.9</v>
+        <v>2748.6</v>
       </c>
       <c r="B48">
-        <v>2.0499999999999998</v>
+        <v>2</v>
       </c>
       <c r="C48">
-        <v>2755.0018805455056</v>
+        <v>2749.6288576538263</v>
       </c>
       <c r="D48">
-        <v>2.0732291643051708</v>
+        <v>2.0150929190075542</v>
       </c>
       <c r="E48">
-        <v>0.10188054550553716</v>
+        <v>1.0288576538264351</v>
       </c>
       <c r="F48">
-        <v>2.3229164305170968E-2</v>
+        <v>1.5092919007554162E-2</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49">
-        <v>2754.9</v>
+        <v>2748.6</v>
       </c>
       <c r="B49">
-        <v>4.03</v>
+        <v>4</v>
       </c>
       <c r="C49">
-        <v>2755.6539552296199</v>
+        <v>2748.7962074310849</v>
       </c>
       <c r="D49">
-        <v>4.0680829187335341</v>
+        <v>4.0186804327575913</v>
       </c>
       <c r="E49">
-        <v>0.75395522961980532</v>
+        <v>0.19620743108498573</v>
       </c>
       <c r="F49">
-        <v>3.8082918733533866E-2</v>
+        <v>1.8680432757591348E-2</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50">
-        <v>2754.9</v>
+        <v>2748.6</v>
       </c>
       <c r="B50">
-        <v>6.05</v>
+        <v>6</v>
       </c>
       <c r="C50">
-        <v>2756.9144797959111</v>
+        <v>2749.1292058498007</v>
       </c>
       <c r="D50">
-        <v>6.0946565265902617</v>
+        <v>6.0226456869004439</v>
       </c>
       <c r="E50">
-        <v>2.0144797959110292</v>
+        <v>0.52920584980074636</v>
       </c>
       <c r="F50">
-        <v>4.4656526590261869E-2</v>
+        <v>2.2645686900443884E-2</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51">
-        <v>2754.9</v>
+        <v>2748.6</v>
       </c>
       <c r="B51">
         <v>8.0299999999999994</v>
       </c>
       <c r="C51">
-        <v>2755.2619898529092</v>
+        <v>2748.6204181514995</v>
       </c>
       <c r="D51">
-        <v>8.0809454595300707</v>
+        <v>8.0106605437453009</v>
       </c>
       <c r="E51">
-        <v>0.36198985290911878</v>
+        <v>2.0418151499598025E-2</v>
       </c>
       <c r="F51">
-        <v>5.0945459530071346E-2</v>
+        <v>-1.9339456254698462E-2</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52">
-        <v>2754.9</v>
+        <v>2748.6</v>
       </c>
       <c r="B52">
-        <v>10.07</v>
+        <v>10</v>
       </c>
       <c r="C52">
-        <v>2753.8863209216925</v>
+        <v>2748.3766351591007</v>
       </c>
       <c r="D52">
-        <v>10.065515711365984</v>
+        <v>9.9736130826910045</v>
       </c>
       <c r="E52">
-        <v>-1.0136790783076322</v>
+        <v>-0.22336484089919395</v>
       </c>
       <c r="F52">
-        <v>-4.4842886340159538E-3</v>
+        <v>-2.638691730899545E-2</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53">
-        <v>2754.9</v>
+        <v>2748.6</v>
       </c>
       <c r="B53">
-        <v>12.03</v>
+        <v>12</v>
       </c>
       <c r="C53">
-        <v>2753.397205242065</v>
+        <v>2748.1060820320754</v>
       </c>
       <c r="D53">
-        <v>12.012027267123779</v>
+        <v>11.950599229611912</v>
       </c>
       <c r="E53">
-        <v>-1.5027947579351348</v>
+        <v>-0.49391796792451714</v>
       </c>
       <c r="F53">
-        <v>-1.7972732876220476E-2</v>
+        <v>-4.9400770388087878E-2</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54">
-        <v>2754.9</v>
+        <v>2748.6</v>
       </c>
       <c r="B54">
-        <v>14.03</v>
+        <v>14</v>
       </c>
       <c r="C54">
-        <v>2754.8432019879556</v>
+        <v>2748.9728790119561</v>
       </c>
       <c r="D54">
-        <v>14.008900544158843</v>
+        <v>13.911879204687645</v>
       </c>
       <c r="E54">
-        <v>-5.679801204450996E-2</v>
+        <v>0.37287901195622908</v>
       </c>
       <c r="F54">
-        <v>-2.1099455841156356E-2</v>
+        <v>-8.8120795312354616E-2</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55">
-        <v>2754.9</v>
+        <v>2748.6</v>
       </c>
       <c r="B55">
-        <v>16.02</v>
+        <v>16</v>
       </c>
       <c r="C55">
-        <v>2756.0464054238664</v>
+        <v>2750.9223724485746</v>
       </c>
       <c r="D55">
-        <v>15.978186873512536</v>
+        <v>15.865154993204499</v>
       </c>
       <c r="E55">
-        <v>1.1464054238663266</v>
+        <v>2.322372448574697</v>
       </c>
       <c r="F55">
-        <v>-4.1813126487463492E-2</v>
+        <v>-0.13484500679550138</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56">
-        <v>2854.6</v>
+        <v>2848.3</v>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
       <c r="C56">
-        <v>2855.0979753829265</v>
+        <v>2849.2364760490691</v>
       </c>
       <c r="D56">
-        <v>1.1335491757115887E-2</v>
+        <v>4.0080744914116874E-2</v>
       </c>
       <c r="E56">
-        <v>0.49797538292659738</v>
+        <v>0.93647604906891502</v>
       </c>
       <c r="F56">
-        <v>1.1335491757115887E-2</v>
+        <v>4.0080744914116874E-2</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57">
-        <v>2854.6</v>
+        <v>2848.3</v>
       </c>
       <c r="B57">
-        <v>-16.079999999999998</v>
+        <v>-15.9</v>
       </c>
       <c r="C57">
-        <v>2853.6519569676534</v>
+        <v>2849.1146487173187</v>
       </c>
       <c r="D57">
-        <v>-16.094355418004838</v>
+        <v>-15.911349464799395</v>
       </c>
       <c r="E57">
-        <v>-0.94804303234650433</v>
+        <v>0.81464871731850508</v>
       </c>
       <c r="F57">
-        <v>-1.4355418004839748E-2</v>
+        <v>-1.1349464799394582E-2</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58">
-        <v>2854.6</v>
+        <v>2848.3</v>
       </c>
       <c r="B58">
         <v>-14.03</v>
       </c>
       <c r="C58">
-        <v>2854.1147714882736</v>
+        <v>2848.6456177780456</v>
       </c>
       <c r="D58">
-        <v>-14.053471436416425</v>
+        <v>-14.054549145787011</v>
       </c>
       <c r="E58">
-        <v>-0.48522851172629089</v>
+        <v>0.34561777804537996</v>
       </c>
       <c r="F58">
-        <v>-2.3471436416425462E-2</v>
+        <v>-2.4549145787011284E-2</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59">
-        <v>2854.6</v>
+        <v>2848.3</v>
       </c>
       <c r="B59">
-        <v>-12</v>
+        <v>-12.03</v>
       </c>
       <c r="C59">
-        <v>2854.5314592176446</v>
+        <v>2847.7238989355869</v>
       </c>
       <c r="D59">
-        <v>-12.024760684135851</v>
+        <v>-12.054611703582394</v>
       </c>
       <c r="E59">
-        <v>-6.8540782355285046E-2</v>
+        <v>-0.57610106441325115</v>
       </c>
       <c r="F59">
-        <v>-2.4760684135850752E-2</v>
+        <v>-2.4611703582394284E-2</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60">
-        <v>2854.6</v>
+        <v>2848.3</v>
       </c>
       <c r="B60">
-        <v>-10</v>
+        <v>-10.029999999999999</v>
       </c>
       <c r="C60">
-        <v>2854.097342494998</v>
+        <v>2849.3137090778528</v>
       </c>
       <c r="D60">
-        <v>-10.009408705651502</v>
+        <v>-10.067759759863167</v>
       </c>
       <c r="E60">
-        <v>-0.50265750500193462</v>
+        <v>1.0137090778525817</v>
       </c>
       <c r="F60">
-        <v>-9.4087056515022027E-3</v>
+        <v>-3.7759759863167375E-2</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61">
-        <v>2854.6</v>
+        <v>2848.3</v>
       </c>
       <c r="B61">
-        <v>-7.97</v>
+        <v>-8.0299999999999994</v>
       </c>
       <c r="C61">
-        <v>2854.1509547359065</v>
+        <v>2848.6263502213574</v>
       </c>
       <c r="D61">
-        <v>-7.9851470098740069</v>
+        <v>-8.043732970075899</v>
       </c>
       <c r="E61">
-        <v>-0.44904526409345635</v>
+        <v>0.32635022135718827</v>
       </c>
       <c r="F61">
-        <v>-1.5147009874007189E-2</v>
+        <v>-1.3732970075899686E-2</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62">
-        <v>2854.6</v>
+        <v>2848.3</v>
       </c>
       <c r="B62">
-        <v>-5.97</v>
+        <v>-6</v>
       </c>
       <c r="C62">
-        <v>2854.6075205505831</v>
+        <v>2848.458073246215</v>
       </c>
       <c r="D62">
-        <v>-5.9915573224597303</v>
+        <v>-6.0230010690971847</v>
       </c>
       <c r="E62">
-        <v>7.5205505831945629E-3</v>
+        <v>0.15807324621482621</v>
       </c>
       <c r="F62">
-        <v>-2.1557322459730521E-2</v>
+        <v>-2.300106909718469E-2</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63">
-        <v>2854.6</v>
+        <v>2848.3</v>
       </c>
       <c r="B63">
-        <v>-3.95</v>
+        <v>-4.03</v>
       </c>
       <c r="C63">
-        <v>2854.624499847338</v>
+        <v>2848.9345334005948</v>
       </c>
       <c r="D63">
-        <v>-3.9660764392636896</v>
+        <v>-4.0285237148482258</v>
       </c>
       <c r="E63">
-        <v>2.4499847338120162E-2</v>
+        <v>0.63453340059459151</v>
       </c>
       <c r="F63">
-        <v>-1.6076439263689402E-2</v>
+        <v>1.476285151774448E-3</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64">
-        <v>2854.6</v>
+        <v>2848.3</v>
       </c>
       <c r="B64">
         <v>-2</v>
       </c>
       <c r="C64">
-        <v>2854.7446949565415</v>
+        <v>2850.3394110106788</v>
       </c>
       <c r="D64">
-        <v>-1.9841067440785347</v>
+        <v>-2.0062521458347211</v>
       </c>
       <c r="E64">
-        <v>0.14469495654157072</v>
+        <v>2.0394110106785774</v>
       </c>
       <c r="F64">
-        <v>1.5893255921465288E-2</v>
+        <v>-6.2521458347211123E-3</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65">
-        <v>2854.6</v>
+        <v>2848.3</v>
       </c>
       <c r="B65">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="C65">
-        <v>2855.0455714807536</v>
+        <v>2849.2481461844195</v>
       </c>
       <c r="D65">
-        <v>6.7338713568233718E-2</v>
+        <v>1.3970620609715803E-2</v>
       </c>
       <c r="E65">
-        <v>0.44557148075364239</v>
+        <v>0.94814618441932907</v>
       </c>
       <c r="F65">
-        <v>1.7338713568233716E-2</v>
+        <v>1.3970620609715803E-2</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66">
-        <v>2854.6</v>
+        <v>2848.3</v>
       </c>
       <c r="B66">
-        <v>2.0499999999999998</v>
+        <v>2</v>
       </c>
       <c r="C66">
-        <v>2855.1396572422423</v>
+        <v>2849.8205345866718</v>
       </c>
       <c r="D66">
-        <v>2.0467923671833752</v>
+        <v>2.0017215204550727</v>
       </c>
       <c r="E66">
-        <v>0.53965724224235601</v>
+        <v>1.5205345866716016</v>
       </c>
       <c r="F66">
-        <v>-3.2076328166246171E-3</v>
+        <v>1.7215204550726781E-3</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67">
-        <v>2854.6</v>
+        <v>2848.3</v>
       </c>
       <c r="B67">
-        <v>4.03</v>
+        <v>4</v>
       </c>
       <c r="C67">
-        <v>2854.8875951202526</v>
+        <v>2848.2033965488081</v>
       </c>
       <c r="D67">
-        <v>4.0367356524122888</v>
+        <v>4.006887670032742</v>
       </c>
       <c r="E67">
-        <v>0.28759512025271761</v>
+        <v>-9.6603451192095235E-2</v>
       </c>
       <c r="F67">
-        <v>6.735652412288573E-3</v>
+        <v>6.8876700327420437E-3</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68">
-        <v>2854.6</v>
+        <v>2848.3</v>
       </c>
       <c r="B68">
-        <v>6.05</v>
+        <v>6</v>
       </c>
       <c r="C68">
-        <v>2855.1243165149008</v>
+        <v>2849.1071926346794</v>
       </c>
       <c r="D68">
-        <v>6.0501026762976391</v>
+        <v>6.005773615227544</v>
       </c>
       <c r="E68">
-        <v>0.52431651490087461</v>
+        <v>0.80719263467926794</v>
       </c>
       <c r="F68">
-        <v>1.0267629763927033E-4</v>
+        <v>5.7736152275440489E-3</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69">
-        <v>2854.6</v>
+        <v>2848.3</v>
       </c>
       <c r="B69">
-        <v>8.0500000000000007</v>
+        <v>8.0299999999999994</v>
       </c>
       <c r="C69">
-        <v>2854.609839315794</v>
+        <v>2848.5082650091904</v>
       </c>
       <c r="D69">
-        <v>8.0421612887799707</v>
+        <v>7.992335559387115</v>
       </c>
       <c r="E69">
-        <v>9.839315794124559E-3</v>
+        <v>0.20826500919019963</v>
       </c>
       <c r="F69">
-        <v>-7.8387112200299924E-3</v>
+        <v>-3.766444061288432E-2</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70">
-        <v>2854.6</v>
+        <v>2848.3</v>
       </c>
       <c r="B70">
-        <v>10.050000000000001</v>
+        <v>10</v>
       </c>
       <c r="C70">
-        <v>2852.9968969919964</v>
+        <v>2847.989652402337</v>
       </c>
       <c r="D70">
-        <v>9.9971042009039852</v>
+        <v>9.9433528923741878</v>
       </c>
       <c r="E70">
-        <v>-1.6031030080034725</v>
+        <v>-0.31034759766316711</v>
       </c>
       <c r="F70">
-        <v>-5.2895799096015494E-2</v>
+        <v>-5.6647107625812154E-2</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71">
-        <v>2854.6</v>
+        <v>2848.3</v>
       </c>
       <c r="B71">
-        <v>12.03</v>
+        <v>12</v>
       </c>
       <c r="C71">
-        <v>2852.9335286920918</v>
+        <v>2847.2746373748982</v>
       </c>
       <c r="D71">
-        <v>11.983173293402903</v>
+        <v>11.934924314321773</v>
       </c>
       <c r="E71">
-        <v>-1.6664713079080684</v>
+        <v>-1.0253626251019341</v>
       </c>
       <c r="F71">
-        <v>-4.6826706597096646E-2</v>
+        <v>-6.5075685678227302E-2</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72">
-        <v>2854.6</v>
+        <v>2848.3</v>
       </c>
       <c r="B72">
-        <v>14.03</v>
+        <v>14</v>
       </c>
       <c r="C72">
-        <v>2854.3823958086368</v>
+        <v>2848.0521880885849</v>
       </c>
       <c r="D72">
-        <v>13.962660688310848</v>
+        <v>13.88603693576753</v>
       </c>
       <c r="E72">
-        <v>-0.21760419136307974</v>
+        <v>-0.24781191141528325</v>
       </c>
       <c r="F72">
-        <v>-6.7339311689151415E-2</v>
+        <v>-0.11396306423247005</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73">
-        <v>2854.6</v>
+        <v>2848.3</v>
       </c>
       <c r="B73">
-        <v>16.02</v>
+        <v>16</v>
       </c>
       <c r="C73">
-        <v>2854.8646357868424</v>
+        <v>2848.6473354663035</v>
       </c>
       <c r="D73">
-        <v>15.934924824278024</v>
+        <v>15.854237824151735</v>
       </c>
       <c r="E73">
-        <v>0.26463578684251843</v>
+        <v>0.34733546630332057</v>
       </c>
       <c r="F73">
-        <v>-8.5075175721975427E-2</v>
+        <v>-0.14576217584826523</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74">
-        <v>2954.3</v>
+        <v>2948</v>
       </c>
       <c r="B74">
         <v>0</v>
       </c>
       <c r="C74">
-        <v>2953.8223528519006</v>
+        <v>2948.4694602697109</v>
       </c>
       <c r="D74">
-        <v>7.5121738560428256E-3</v>
+        <v>3.662830182670844E-2</v>
       </c>
       <c r="E74">
-        <v>-0.47764714809954967</v>
+        <v>0.4694602697109076</v>
       </c>
       <c r="F74">
-        <v>7.5121738560428256E-3</v>
+        <v>3.662830182670844E-2</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75">
-        <v>2954.3</v>
+        <v>2948</v>
       </c>
       <c r="B75">
-        <v>-16.079999999999998</v>
+        <v>-15.9</v>
       </c>
       <c r="C75">
-        <v>2952.8158860619901</v>
+        <v>2946.5338338583115</v>
       </c>
       <c r="D75">
-        <v>-16.127704356656956</v>
+        <v>-15.894181660939703</v>
       </c>
       <c r="E75">
-        <v>-1.4841139380100685</v>
+        <v>-1.4661661416885181</v>
       </c>
       <c r="F75">
-        <v>-4.7704356656957714E-2</v>
+        <v>5.818339060297717E-3</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76">
-        <v>2954.3</v>
+        <v>2948</v>
       </c>
       <c r="B76">
         <v>-14.03</v>
       </c>
       <c r="C76">
-        <v>2953.881800215674</v>
+        <v>2947.4162803330091</v>
       </c>
       <c r="D76">
-        <v>-14.060525251612608</v>
+        <v>-14.045680676681119</v>
       </c>
       <c r="E76">
-        <v>-0.41819978432613425</v>
+        <v>-0.58371966699087352</v>
       </c>
       <c r="F76">
-        <v>-3.0525251612608884E-2</v>
+        <v>-1.5680676681119721E-2</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77">
-        <v>2954.3</v>
+        <v>2948</v>
       </c>
       <c r="B77">
-        <v>-12</v>
+        <v>-12.03</v>
       </c>
       <c r="C77">
-        <v>2953.1912320447223</v>
+        <v>2947.0887755315302</v>
       </c>
       <c r="D77">
-        <v>-12.026353340062832</v>
+        <v>-12.055358662958447</v>
       </c>
       <c r="E77">
-        <v>-1.1087679552779264</v>
+        <v>-0.91122446846975436</v>
       </c>
       <c r="F77">
-        <v>-2.6353340062831521E-2</v>
+        <v>-2.5358662958447908E-2</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78">
-        <v>2954.3</v>
+        <v>2948</v>
       </c>
       <c r="B78">
-        <v>-10</v>
+        <v>-10.029999999999999</v>
       </c>
       <c r="C78">
-        <v>2953.9224607558626</v>
+        <v>2947.3111476380373</v>
       </c>
       <c r="D78">
-        <v>-10.022148772121806</v>
+        <v>-10.047656667509218</v>
       </c>
       <c r="E78">
-        <v>-0.37753924413755158</v>
+        <v>-0.68885236196274491</v>
       </c>
       <c r="F78">
-        <v>-2.2148772121806104E-2</v>
+        <v>-1.7656667509218238E-2</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79">
-        <v>2954.3</v>
+        <v>2948</v>
       </c>
       <c r="B79">
-        <v>-7.97</v>
+        <v>-8.0299999999999994</v>
       </c>
       <c r="C79">
-        <v>2953.712180373534</v>
+        <v>2946.7974240407116</v>
       </c>
       <c r="D79">
-        <v>-7.9970672934114226</v>
+        <v>-8.0351456859008685</v>
       </c>
       <c r="E79">
-        <v>-0.58781962646617103</v>
+        <v>-1.2025759592884242</v>
       </c>
       <c r="F79">
-        <v>-2.7067293411422888E-2</v>
+        <v>-5.145685900869168E-3</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80">
-        <v>2954.3</v>
+        <v>2948</v>
       </c>
       <c r="B80">
-        <v>-5.97</v>
+        <v>-6</v>
       </c>
       <c r="C80">
-        <v>2954.9717796306081</v>
+        <v>2947.1034962819908</v>
       </c>
       <c r="D80">
-        <v>-5.9877593714411166</v>
+        <v>-6.0151964695373943</v>
       </c>
       <c r="E80">
-        <v>0.67177963060794355</v>
+        <v>-0.89650371800917128</v>
       </c>
       <c r="F80">
-        <v>-1.7759371441116834E-2</v>
+        <v>-1.5196469537394286E-2</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81">
-        <v>2954.3</v>
+        <v>2948</v>
       </c>
       <c r="B81">
-        <v>-3.95</v>
+        <v>-4.03</v>
       </c>
       <c r="C81">
-        <v>2955.6905770295398</v>
+        <v>2948.9567580820526</v>
       </c>
       <c r="D81">
-        <v>-3.9770010182431457</v>
+        <v>-4.0196495243435573</v>
       </c>
       <c r="E81">
-        <v>1.3905770295395996</v>
+        <v>0.95675808205260182</v>
       </c>
       <c r="F81">
-        <v>-2.7001018243145491E-2</v>
+        <v>1.0350475656442981E-2</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82">
-        <v>2954.3</v>
+        <v>2948</v>
       </c>
       <c r="B82">
         <v>-2</v>
       </c>
       <c r="C82">
-        <v>2954.6715663240593</v>
+        <v>2950.1500314792343</v>
       </c>
       <c r="D82">
-        <v>-1.984046055466647</v>
+        <v>-1.988290934818886</v>
       </c>
       <c r="E82">
-        <v>0.37156632405913115</v>
+        <v>2.1500314792342579</v>
       </c>
       <c r="F82">
-        <v>1.5953944533352971E-2</v>
+        <v>1.1709065181114031E-2</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83">
-        <v>2954.3</v>
+        <v>2948</v>
       </c>
       <c r="B83">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="C83">
-        <v>2953.9073674646502</v>
+        <v>2948.5243863429505</v>
       </c>
       <c r="D83">
-        <v>5.1306018296109368E-2</v>
+        <v>1.6459205448044967E-2</v>
       </c>
       <c r="E83">
-        <v>-0.39263253535000331</v>
+        <v>0.52438634295049269</v>
       </c>
       <c r="F83">
-        <v>1.3060182961093653E-3</v>
+        <v>1.6459205448044967E-2</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84">
-        <v>2954.3</v>
+        <v>2948</v>
       </c>
       <c r="B84">
-        <v>2.0499999999999998</v>
+        <v>2</v>
       </c>
       <c r="C84">
-        <v>2954.9187746962098</v>
+        <v>2948.2982210891987</v>
       </c>
       <c r="D84">
-        <v>2.039453747686895</v>
+        <v>2.0085998881307345</v>
       </c>
       <c r="E84">
-        <v>0.61877469620958436</v>
+        <v>0.29822108919870516</v>
       </c>
       <c r="F84">
-        <v>-1.0546252313104798E-2</v>
+        <v>8.5998881307345343E-3</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85">
-        <v>2954.3</v>
+        <v>2948</v>
       </c>
       <c r="B85">
-        <v>4.03</v>
+        <v>4</v>
       </c>
       <c r="C85">
-        <v>2953.8442662477296</v>
+        <v>2948.7284713735799</v>
       </c>
       <c r="D85">
-        <v>4.0269679682421042</v>
+        <v>4.0034952097356076</v>
       </c>
       <c r="E85">
-        <v>-0.45573375227058932</v>
+        <v>0.72847137357985048</v>
       </c>
       <c r="F85">
-        <v>-3.0320317578960143E-3</v>
+        <v>3.495209735607574E-3</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86">
-        <v>2954.3</v>
+        <v>2948</v>
       </c>
       <c r="B86">
-        <v>6.05</v>
+        <v>6</v>
       </c>
       <c r="C86">
-        <v>2955.4181079354998</v>
+        <v>2947.0252367166786</v>
       </c>
       <c r="D86">
-        <v>6.037197526507911</v>
+        <v>6.0028815031896494</v>
       </c>
       <c r="E86">
-        <v>1.1181079354996655</v>
+        <v>-0.97476328332140838</v>
       </c>
       <c r="F86">
-        <v>-1.2802473492088851E-2</v>
+        <v>2.8815031896494148E-3</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87">
-        <v>2954.3</v>
+        <v>2948</v>
       </c>
       <c r="B87">
-        <v>8.0500000000000007</v>
+        <v>8.0299999999999994</v>
       </c>
       <c r="C87">
-        <v>2954.2590492125164</v>
+        <v>2946.3889981245775</v>
       </c>
       <c r="D87">
-        <v>8.0259327204079813</v>
+        <v>7.9944971497530943</v>
       </c>
       <c r="E87">
-        <v>-4.0950787483780005E-2</v>
+        <v>-1.6110018754225166</v>
       </c>
       <c r="F87">
-        <v>-2.4067279592019375E-2</v>
+        <v>-3.5502850246905027E-2</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88">
-        <v>2954.3</v>
+        <v>2948</v>
       </c>
       <c r="B88">
-        <v>10.050000000000001</v>
+        <v>10</v>
       </c>
       <c r="C88">
-        <v>2952.0819885783335</v>
+        <v>2945.1908402467425</v>
       </c>
       <c r="D88">
-        <v>10.002585916461809</v>
+        <v>9.9505183492112632</v>
       </c>
       <c r="E88">
-        <v>-2.218011421666688</v>
+        <v>-2.8091597532575179</v>
       </c>
       <c r="F88">
-        <v>-4.7414083538191321E-2</v>
+        <v>-4.9481650788736786E-2</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89">
-        <v>2954.3</v>
+        <v>2948</v>
       </c>
       <c r="B89">
-        <v>12.03</v>
+        <v>12</v>
       </c>
       <c r="C89">
-        <v>2951.9686445845268</v>
+        <v>2945.8079764382514</v>
       </c>
       <c r="D89">
-        <v>11.966157554832357</v>
+        <v>11.924881553985504</v>
       </c>
       <c r="E89">
-        <v>-2.3313554154733538</v>
+        <v>-2.1920235617485559</v>
       </c>
       <c r="F89">
-        <v>-6.3842445167642481E-2</v>
+        <v>-7.5118446014496243E-2</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90">
-        <v>2954.3</v>
+        <v>2948</v>
       </c>
       <c r="B90">
-        <v>14.03</v>
+        <v>14</v>
       </c>
       <c r="C90">
-        <v>2953.3280653223733</v>
+        <v>2945.9947304882739</v>
       </c>
       <c r="D90">
-        <v>13.949384011874722</v>
+        <v>13.891980878235982</v>
       </c>
       <c r="E90">
-        <v>-0.97193467762690489</v>
+        <v>-2.0052695117260555</v>
       </c>
       <c r="F90">
-        <v>-8.0615988125277482E-2</v>
+        <v>-0.10801912176401807</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91">
-        <v>2954.3</v>
+        <v>2948</v>
       </c>
       <c r="B91">
-        <v>16.02</v>
+        <v>16</v>
       </c>
       <c r="C91">
-        <v>2954.0795611001745</v>
+        <v>2946.3297159756185</v>
       </c>
       <c r="D91">
-        <v>15.921671861384944</v>
+        <v>15.838112013635207</v>
       </c>
       <c r="E91">
-        <v>-0.22043889982569453</v>
+        <v>-1.6702840243815444</v>
       </c>
       <c r="F91">
-        <v>-9.8328138615055849E-2</v>
+        <v>-0.16188798636479262</v>
       </c>
     </row>
   </sheetData>

--- a/cam8_validation_result.xlsx
+++ b/cam8_validation_result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\voies\Desktop\GodEyesProject\CalibPro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29ACB4CC-5EDB-48DB-A7F4-7DB0324FF8AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7111BD12-65BB-4E1C-B728-21FCEDC5087D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8229" yWindow="3729" windowWidth="24685" windowHeight="13217" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15257" yWindow="3086" windowWidth="16192" windowHeight="13225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -223,274 +223,274 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="90"/>
                 <c:pt idx="0">
-                  <c:v>-0.93210358331270982</c:v>
+                  <c:v>-1.1364853099503307</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.4706982588186293</c:v>
+                  <c:v>1.9969876040972849</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2137077748525371</c:v>
+                  <c:v>0.26946249917591558</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.3526861676327826</c:v>
+                  <c:v>-0.38268328604408453</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.59682314361953104</c:v>
+                  <c:v>-0.29721815057109779</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-8.8623550826469E-2</c:v>
+                  <c:v>-0.49804149716237589</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.98814343332378485</c:v>
+                  <c:v>-0.40089999714109581</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.100019988251006</c:v>
+                  <c:v>-0.38269267704481535</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.6312792395078759</c:v>
+                  <c:v>0.33207750846258932</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.81370312643184661</c:v>
+                  <c:v>-1.5359445026156209</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.6668200421445363E-2</c:v>
+                  <c:v>-0.51814505647416809</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.49678381279727546</c:v>
+                  <c:v>0.39687285742684253</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.47243209223006488</c:v>
+                  <c:v>0.23584963474604592</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.18911400522438271</c:v>
+                  <c:v>-0.25380109464776979</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-6.6580737353433506E-2</c:v>
+                  <c:v>0.39798801305460074</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.49407122025468198</c:v>
+                  <c:v>-1.8443533513618604E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.4792188711235212</c:v>
+                  <c:v>1.281470369166982</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.6852791763503774</c:v>
+                  <c:v>3.0098531970288604</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.23387098609282475</c:v>
+                  <c:v>-0.44208923759697427</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.8465378301998499</c:v>
+                  <c:v>1.351061993532312</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.1924471869401714</c:v>
+                  <c:v>0.70540070699826174</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.0383788573781203E-2</c:v>
+                  <c:v>-0.6727154733343923</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.44871948083800817</c:v>
+                  <c:v>-0.18882718354552708</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.67019767951796894</c:v>
+                  <c:v>-0.21755477145052282</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.15794961487381443</c:v>
+                  <c:v>0.50615067813350834</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.16530513080988385</c:v>
+                  <c:v>-0.38309092861527461</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.3857207144992572</c:v>
+                  <c:v>1.2722739819669187</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-0.25699732477414727</c:v>
+                  <c:v>-0.71140860581772358</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.0147589380308091</c:v>
+                  <c:v>0.68875885125680725</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.29317527195416915</c:v>
+                  <c:v>0.83537668059443604</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.22511156140672028</c:v>
+                  <c:v>1.2077020298220305</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.8969005277540418E-3</c:v>
+                  <c:v>6.0147162748762639E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.53743519865838607</c:v>
+                  <c:v>0.66081813606615469</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.24188442061222304</c:v>
+                  <c:v>0.10368833164648095</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.1992147033820402</c:v>
+                  <c:v>1.3642712776772896</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.319390279111758</c:v>
+                  <c:v>2.7670099331057827</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.5776227579890474</c:v>
+                  <c:v>0.52430256476282011</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.0815677732284712</c:v>
+                  <c:v>1.4412910930386715</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.17961496830048418</c:v>
+                  <c:v>-4.4589570394236944E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.32238086232428032</c:v>
+                  <c:v>-0.26556415705408654</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-0.53747657980511576</c:v>
+                  <c:v>-1.106852928387525E-4</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-0.18368052050573169</c:v>
+                  <c:v>-0.78679280431515508</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.91547913343856635</c:v>
+                  <c:v>-0.11464466111192451</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.69783737517582267</c:v>
+                  <c:v>0.79477867798868829</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3.3781083878807294</c:v>
+                  <c:v>1.3128912253887393</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.6236290466799801</c:v>
+                  <c:v>0.2918441451538456</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.0288576538264351</c:v>
+                  <c:v>0.23933761601847436</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.19620743108498573</c:v>
+                  <c:v>0.8352916567646389</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.52920584980074636</c:v>
+                  <c:v>1.0591666962754971</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2.0418151499598025E-2</c:v>
+                  <c:v>0.71417894241221802</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-0.22336484089919395</c:v>
+                  <c:v>0.44805453703656895</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-0.49391796792451714</c:v>
+                  <c:v>-0.21011995412391116</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.37287901195622908</c:v>
+                  <c:v>0.73750487179859192</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2.322372448574697</c:v>
+                  <c:v>2.2009922560591804</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.93647604906891502</c:v>
+                  <c:v>0.89838653332526519</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.81464871731850508</c:v>
+                  <c:v>0.52855870458597565</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.34561777804537996</c:v>
+                  <c:v>-0.29837929821769649</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-0.57610106441325115</c:v>
+                  <c:v>-0.64858596574686089</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.0137090778525817</c:v>
+                  <c:v>0.18124378771653937</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.32635022135718827</c:v>
+                  <c:v>-0.37805529525485326</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.15807324621482621</c:v>
+                  <c:v>-4.9363230460585328E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.63453340059459151</c:v>
+                  <c:v>0.9772061304743147</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2.0394110106785774</c:v>
+                  <c:v>2.5802538855105013</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.94814618441932907</c:v>
+                  <c:v>0.75960666044329628</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.5205345866716016</c:v>
+                  <c:v>1.5767929291373548</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-9.6603451192095235E-2</c:v>
+                  <c:v>1.8353587504111601</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.80719263467926794</c:v>
+                  <c:v>-0.11610195309822302</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.20826500919019963</c:v>
+                  <c:v>0.43599886699848867</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-0.31034759766316711</c:v>
+                  <c:v>-0.32947860829744968</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-1.0253626251019341</c:v>
+                  <c:v>-0.56164775309161996</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-0.24781191141528325</c:v>
+                  <c:v>1.1150520891787892</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.34733546630332057</c:v>
+                  <c:v>1.263697713039619</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.4694602697109076</c:v>
+                  <c:v>1.1146266959058266</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-1.4661661416885181</c:v>
+                  <c:v>-0.63102900250305538</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-0.58371966699087352</c:v>
+                  <c:v>-1.130729684770813</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-0.91122446846975436</c:v>
+                  <c:v>-2.0880521137069081</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-0.68885236196274491</c:v>
+                  <c:v>-0.35664623232560189</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-1.2025759592884242</c:v>
+                  <c:v>0.60472378805252447</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-0.89650371800917128</c:v>
+                  <c:v>0.64022805389413406</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.95675808205260182</c:v>
+                  <c:v>1.1238476003200049</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>2.1500314792342579</c:v>
+                  <c:v>1.679719075945286</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.52438634295049269</c:v>
+                  <c:v>0.14608896837262364</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.29822108919870516</c:v>
+                  <c:v>2.4768658706925635</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.72847137357985048</c:v>
+                  <c:v>0.80566521554283099</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>-0.97476328332140838</c:v>
+                  <c:v>-0.37912263237649313</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-1.6110018754225166</c:v>
+                  <c:v>-0.44669379973584</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-2.8091597532575179</c:v>
+                  <c:v>-0.28607112724830586</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-2.1920235617485559</c:v>
+                  <c:v>-0.88607199623174893</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-2.0052695117260555</c:v>
+                  <c:v>-1.206411443428351</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-1.6702840243815444</c:v>
+                  <c:v>0.12002608981310914</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2259,48 +2259,48 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>2549.1999999999998</v>
+        <v>2550.1</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2548.2678964166871</v>
+        <v>2548.9635146900496</v>
       </c>
       <c r="D2">
-        <v>5.7930728605595401E-2</v>
+        <v>4.513918364538802E-2</v>
       </c>
       <c r="E2">
-        <v>-0.93210358331270982</v>
+        <v>-1.1364853099503307</v>
       </c>
       <c r="F2">
-        <v>5.7930728605595401E-2</v>
+        <v>4.513918364538802E-2</v>
       </c>
       <c r="H2" t="s">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.89443274610227186</v>
+        <v>0.77956784903419951</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>2549.1999999999998</v>
+        <v>2550.1</v>
       </c>
       <c r="B3">
-        <v>-15.92</v>
+        <v>-15.95</v>
       </c>
       <c r="C3">
-        <v>2551.6706982588184</v>
+        <v>2552.0969876040972</v>
       </c>
       <c r="D3">
-        <v>-16.386806487561262</v>
+        <v>-15.968305209892067</v>
       </c>
       <c r="E3">
-        <v>2.4706982588186293</v>
+        <v>1.9969876040972849</v>
       </c>
       <c r="F3">
-        <v>-0.46680648756126253</v>
+        <v>-1.8305209892067964E-2</v>
       </c>
       <c r="H3" t="s">
         <v>1</v>
@@ -2311,1780 +2311,1780 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>2549.1999999999998</v>
+        <v>2550.1</v>
       </c>
       <c r="B4">
-        <v>-14.1</v>
+        <v>-14.03</v>
       </c>
       <c r="C4">
-        <v>2550.4137077748524</v>
+        <v>2550.3694624991758</v>
       </c>
       <c r="D4">
-        <v>-14.490188776608319</v>
+        <v>-14.045927355182148</v>
       </c>
       <c r="E4">
-        <v>1.2137077748525371</v>
+        <v>0.26946249917591558</v>
       </c>
       <c r="F4">
-        <v>-0.39018877660831919</v>
+        <v>-1.5927355182148162E-2</v>
       </c>
       <c r="H4" t="s">
         <v>2</v>
       </c>
       <c r="I4">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>2549.1999999999998</v>
+        <v>2550.1</v>
       </c>
       <c r="B5">
-        <v>-12.07</v>
+        <v>-12.03</v>
       </c>
       <c r="C5">
-        <v>2549.5526861676326</v>
+        <v>2549.7173167139558</v>
       </c>
       <c r="D5">
-        <v>-12.433933403421314</v>
+        <v>-12.028913993358985</v>
       </c>
       <c r="E5">
-        <v>0.3526861676327826</v>
+        <v>-0.38268328604408453</v>
       </c>
       <c r="F5">
-        <v>-0.36393340342131353</v>
+        <v>1.0860066410138813E-3</v>
       </c>
       <c r="H5" t="s">
         <v>3</v>
       </c>
       <c r="I5">
-        <v>0.85555555555555551</v>
+        <v>0.93333333333333335</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>2549.1999999999998</v>
+        <v>2550.1</v>
       </c>
       <c r="B6">
-        <v>-9.9</v>
+        <v>-10</v>
       </c>
       <c r="C6">
-        <v>2549.7968231436193</v>
+        <v>2549.8027818494288</v>
       </c>
       <c r="D6">
-        <v>-10.707815295952546</v>
+        <v>-10.029466711352233</v>
       </c>
       <c r="E6">
-        <v>0.59682314361953104</v>
+        <v>-0.29721815057109779</v>
       </c>
       <c r="F6">
-        <v>-0.80781529595254575</v>
+        <v>-2.9466711352233332E-2</v>
       </c>
       <c r="H6" t="s">
         <v>4</v>
       </c>
       <c r="I6">
-        <v>2.3857207144992572</v>
+        <v>2.2009922560591804</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>2549.1999999999998</v>
+        <v>2550.1</v>
       </c>
       <c r="B7">
-        <v>-8.0500000000000007</v>
+        <v>-8.0299999999999994</v>
       </c>
       <c r="C7">
-        <v>2549.1113764491733</v>
+        <v>2549.6019585028375</v>
       </c>
       <c r="D7">
-        <v>-8.8175919711898185</v>
+        <v>-8.0268503269374971</v>
       </c>
       <c r="E7">
-        <v>-8.8623550826469E-2</v>
+        <v>-0.49804149716237589</v>
       </c>
       <c r="F7">
-        <v>-0.76759197118981781</v>
+        <v>3.1496730625022451E-3</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>2549.1999999999998</v>
+        <v>2550.1</v>
       </c>
       <c r="B8">
-        <v>-6</v>
+        <v>-5.98</v>
       </c>
       <c r="C8">
-        <v>2548.211856566676</v>
+        <v>2549.6991000028588</v>
       </c>
       <c r="D8">
-        <v>-6.8003912659325678</v>
+        <v>-5.9809734031638282</v>
       </c>
       <c r="E8">
-        <v>-0.98814343332378485</v>
+        <v>-0.40089999714109581</v>
       </c>
       <c r="F8">
-        <v>-0.80039126593256782</v>
+        <v>-9.7340316382776848E-4</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>2549.1999999999998</v>
+        <v>2550.1</v>
       </c>
       <c r="B9">
         <v>-4</v>
       </c>
       <c r="C9">
-        <v>2549.3000199882508</v>
+        <v>2549.7173073229551</v>
       </c>
       <c r="D9">
-        <v>-4.7843272704031241</v>
+        <v>-3.999051376905999</v>
       </c>
       <c r="E9">
-        <v>0.100019988251006</v>
+        <v>-0.38269267704481535</v>
       </c>
       <c r="F9">
-        <v>-0.78432727040312411</v>
+        <v>9.4862309400101097E-4</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>2549.1999999999998</v>
+        <v>2550.1</v>
       </c>
       <c r="B10">
-        <v>-2.0299999999999998</v>
+        <v>-1.98</v>
       </c>
       <c r="C10">
-        <v>2550.8312792395077</v>
+        <v>2550.4320775084625</v>
       </c>
       <c r="D10">
-        <v>-2.7911019221560616</v>
+        <v>-1.9795660326497946</v>
       </c>
       <c r="E10">
-        <v>1.6312792395078759</v>
+        <v>0.33207750846258932</v>
       </c>
       <c r="F10">
-        <v>-0.76110192215606176</v>
+        <v>4.3396735020539978E-4</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>2549.1999999999998</v>
+        <v>2550.1</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>2548.386296873568</v>
+        <v>2548.5640554973843</v>
       </c>
       <c r="D11">
-        <v>-0.75082139200474196</v>
+        <v>2.2771562724844707E-2</v>
       </c>
       <c r="E11">
-        <v>-0.81370312643184661</v>
+        <v>-1.5359445026156209</v>
       </c>
       <c r="F11">
-        <v>-0.75082139200474196</v>
+        <v>2.2771562724844707E-2</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>2549.1999999999998</v>
+        <v>2550.1</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="C12">
-        <v>2549.2366682004213</v>
+        <v>2549.5818549435257</v>
       </c>
       <c r="D12">
-        <v>1.2630079177784634</v>
+        <v>2.0340381651860913</v>
       </c>
       <c r="E12">
-        <v>3.6668200421445363E-2</v>
+        <v>-0.51814505647416809</v>
       </c>
       <c r="F12">
-        <v>-0.73699208222153656</v>
+        <v>1.4038165186091245E-2</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>2549.1999999999998</v>
+        <v>2550.1</v>
       </c>
       <c r="B13">
         <v>4</v>
       </c>
       <c r="C13">
-        <v>2548.7032161872025</v>
+        <v>2550.4968728574268</v>
       </c>
       <c r="D13">
-        <v>3.2500470284899792</v>
+        <v>4.0317369698760039</v>
       </c>
       <c r="E13">
-        <v>-0.49678381279727546</v>
+        <v>0.39687285742684253</v>
       </c>
       <c r="F13">
-        <v>-0.74995297151002083</v>
+        <v>3.173696987600394E-2</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>2549.1999999999998</v>
+        <v>2550.1</v>
       </c>
       <c r="B14">
-        <v>6.03</v>
+        <v>6.02</v>
       </c>
       <c r="C14">
-        <v>2549.6724320922299</v>
+        <v>2550.335849634746</v>
       </c>
       <c r="D14">
-        <v>5.2552192763616654</v>
+        <v>6.0434325226991144</v>
       </c>
       <c r="E14">
-        <v>0.47243209223006488</v>
+        <v>0.23584963474604592</v>
       </c>
       <c r="F14">
-        <v>-0.77478072363833483</v>
+        <v>2.3432522699114777E-2</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>2549.1999999999998</v>
+        <v>2550.1</v>
       </c>
       <c r="B15">
-        <v>8</v>
+        <v>8.02</v>
       </c>
       <c r="C15">
-        <v>2549.0108859947754</v>
+        <v>2549.8461989053521</v>
       </c>
       <c r="D15">
-        <v>7.2265659542652347</v>
+        <v>8.0184882825158894</v>
       </c>
       <c r="E15">
-        <v>-0.18911400522438271</v>
+        <v>-0.25380109464776979</v>
       </c>
       <c r="F15">
-        <v>-0.77343404573476526</v>
+        <v>-1.5117174841101644E-3</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>2549.1999999999998</v>
+        <v>2550.1</v>
       </c>
       <c r="B16">
-        <v>10</v>
+        <v>10.02</v>
       </c>
       <c r="C16">
-        <v>2549.1334192626464</v>
+        <v>2550.4979880130545</v>
       </c>
       <c r="D16">
-        <v>9.2163393887054212</v>
+        <v>9.9814956240042925</v>
       </c>
       <c r="E16">
-        <v>-6.6580737353433506E-2</v>
+        <v>0.39798801305460074</v>
       </c>
       <c r="F16">
-        <v>-0.78366061129457876</v>
+        <v>-3.8504375995707107E-2</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>2549.1999999999998</v>
+        <v>2550.1</v>
       </c>
       <c r="B17">
         <v>12</v>
       </c>
       <c r="C17">
-        <v>2549.6940712202545</v>
+        <v>2550.0815564664863</v>
       </c>
       <c r="D17">
-        <v>11.205745177939805</v>
+        <v>11.954612089180278</v>
       </c>
       <c r="E17">
-        <v>0.49407122025468198</v>
+        <v>-1.8443533513618604E-2</v>
       </c>
       <c r="F17">
-        <v>-0.7942548220601946</v>
+        <v>-4.5387910819721711E-2</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>2549.1999999999998</v>
+        <v>2550.1</v>
       </c>
       <c r="B18">
-        <v>14</v>
+        <v>14.02</v>
       </c>
       <c r="C18">
-        <v>2550.6792188711233</v>
+        <v>2551.3814703691669</v>
       </c>
       <c r="D18">
-        <v>13.158013872488004</v>
+        <v>13.93110769457483</v>
       </c>
       <c r="E18">
-        <v>1.4792188711235212</v>
+        <v>1.281470369166982</v>
       </c>
       <c r="F18">
-        <v>-0.84198612751199597</v>
+        <v>-8.8892305425169127E-2</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>2549.1999999999998</v>
+        <v>2550.1</v>
       </c>
       <c r="B19">
-        <v>16</v>
+        <v>16.02</v>
       </c>
       <c r="C19">
-        <v>2551.8852791763502</v>
+        <v>2553.1098531970288</v>
       </c>
       <c r="D19">
-        <v>15.128503948890485</v>
+        <v>15.87333740235111</v>
       </c>
       <c r="E19">
-        <v>2.6852791763503774</v>
+        <v>3.0098531970288604</v>
       </c>
       <c r="F19">
-        <v>-0.87149605110951534</v>
+        <v>-0.14666259764888956</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>2648.9</v>
+        <v>2649.8</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20">
-        <v>2648.6661290139073</v>
+        <v>2649.3579107624032</v>
       </c>
       <c r="D20">
-        <v>6.0067109468942073E-2</v>
+        <v>3.3831918055889615E-2</v>
       </c>
       <c r="E20">
-        <v>-0.23387098609282475</v>
+        <v>-0.44208923759697427</v>
       </c>
       <c r="F20">
-        <v>6.0067109468942073E-2</v>
+        <v>3.3831918055889615E-2</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>2648.9</v>
+        <v>2649.8</v>
       </c>
       <c r="B21">
-        <v>-15.9</v>
+        <v>-15.95</v>
       </c>
       <c r="C21">
-        <v>2650.7465378301999</v>
+        <v>2651.1510619935325</v>
       </c>
       <c r="D21">
-        <v>-15.887031574026894</v>
+        <v>-15.963307649496624</v>
       </c>
       <c r="E21">
-        <v>1.8465378301998499</v>
+        <v>1.351061993532312</v>
       </c>
       <c r="F21">
-        <v>1.2968425973106434E-2</v>
+        <v>-1.3307649496624663E-2</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>2648.9</v>
+        <v>2649.8</v>
       </c>
       <c r="B22">
         <v>-14.03</v>
       </c>
       <c r="C22">
-        <v>2650.0924471869403</v>
+        <v>2650.5054007069984</v>
       </c>
       <c r="D22">
-        <v>-14.039382138877524</v>
+        <v>-14.049923814046291</v>
       </c>
       <c r="E22">
-        <v>1.1924471869401714</v>
+        <v>0.70540070699826174</v>
       </c>
       <c r="F22">
-        <v>-9.3821388775250369E-3</v>
+        <v>-1.9923814046292065E-2</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>2648.9</v>
+        <v>2649.8</v>
       </c>
       <c r="B23">
         <v>-12.03</v>
       </c>
       <c r="C23">
-        <v>2648.9203837885739</v>
+        <v>2649.1272845266658</v>
       </c>
       <c r="D23">
-        <v>-12.037703112857415</v>
+        <v>-12.041308867305251</v>
       </c>
       <c r="E23">
-        <v>2.0383788573781203E-2</v>
+        <v>-0.6727154733343923</v>
       </c>
       <c r="F23">
-        <v>-7.7031128574152063E-3</v>
+        <v>-1.1308867305251269E-2</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>2648.9</v>
+        <v>2649.8</v>
       </c>
       <c r="B24">
-        <v>-10.029999999999999</v>
+        <v>-10</v>
       </c>
       <c r="C24">
-        <v>2648.4512805191621</v>
+        <v>2649.6111728164547</v>
       </c>
       <c r="D24">
-        <v>-10.038820502382125</v>
+        <v>-10.014857596881045</v>
       </c>
       <c r="E24">
-        <v>-0.44871948083800817</v>
+        <v>-0.18882718354552708</v>
       </c>
       <c r="F24">
-        <v>-8.8205023821252837E-3</v>
+        <v>-1.4857596881045154E-2</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>2648.9</v>
+        <v>2649.8</v>
       </c>
       <c r="B25">
         <v>-8.0299999999999994</v>
       </c>
       <c r="C25">
-        <v>2649.5701976795181</v>
+        <v>2649.5824452285497</v>
       </c>
       <c r="D25">
-        <v>-8.0167597583633885</v>
+        <v>-8.0238266083175755</v>
       </c>
       <c r="E25">
-        <v>0.67019767951796894</v>
+        <v>-0.21755477145052282</v>
       </c>
       <c r="F25">
-        <v>1.3240241636610861E-2</v>
+        <v>6.1733916824238122E-3</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>2648.9</v>
+        <v>2649.8</v>
       </c>
       <c r="B26">
-        <v>-6</v>
+        <v>-5.98</v>
       </c>
       <c r="C26">
-        <v>2649.0579496148739</v>
+        <v>2650.3061506781337</v>
       </c>
       <c r="D26">
-        <v>-5.9953716806141637</v>
+        <v>-5.9925563063454055</v>
       </c>
       <c r="E26">
-        <v>0.15794961487381443</v>
+        <v>0.50615067813350834</v>
       </c>
       <c r="F26">
-        <v>4.6283193858362992E-3</v>
+        <v>-1.2556306345405055E-2</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>2648.9</v>
+        <v>2649.8</v>
       </c>
       <c r="B27">
         <v>-4</v>
       </c>
       <c r="C27">
-        <v>2649.06530513081</v>
+        <v>2649.4169090713849</v>
       </c>
       <c r="D27">
-        <v>-3.9900710651176574</v>
+        <v>-3.985862069528618</v>
       </c>
       <c r="E27">
-        <v>0.16530513080988385</v>
+        <v>-0.38309092861527461</v>
       </c>
       <c r="F27">
-        <v>9.9289348823425883E-3</v>
+        <v>1.413793047138201E-2</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>2648.9</v>
+        <v>2649.8</v>
       </c>
       <c r="B28">
-        <v>-2.0299999999999998</v>
+        <v>-1.98</v>
       </c>
       <c r="C28">
-        <v>2651.2857207144993</v>
+        <v>2651.0722739819671</v>
       </c>
       <c r="D28">
-        <v>-1.9847381832796314</v>
+        <v>-1.9769419606099128</v>
       </c>
       <c r="E28">
-        <v>2.3857207144992572</v>
+        <v>1.2722739819669187</v>
       </c>
       <c r="F28">
-        <v>4.5261816720368442E-2</v>
+        <v>3.0580393900871972E-3</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>2648.9</v>
+        <v>2649.8</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29">
-        <v>2648.6430026752259</v>
+        <v>2649.0885913941825</v>
       </c>
       <c r="D29">
-        <v>4.7955191455501443E-2</v>
+        <v>2.3574265164513095E-2</v>
       </c>
       <c r="E29">
-        <v>-0.25699732477414727</v>
+        <v>-0.71140860581772358</v>
       </c>
       <c r="F29">
-        <v>4.7955191455501443E-2</v>
+        <v>2.3574265164513095E-2</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>2648.9</v>
+        <v>2649.8</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="C30">
-        <v>2650.9147589380309</v>
+        <v>2650.488758851257</v>
       </c>
       <c r="D30">
-        <v>2.029944302871491</v>
+        <v>2.0323521724318461</v>
       </c>
       <c r="E30">
-        <v>2.0147589380308091</v>
+        <v>0.68875885125680725</v>
       </c>
       <c r="F30">
-        <v>2.9944302871490969E-2</v>
+        <v>1.2352172431846054E-2</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>2648.9</v>
+        <v>2649.8</v>
       </c>
       <c r="B31">
         <v>4</v>
       </c>
       <c r="C31">
-        <v>2649.1931752719543</v>
+        <v>2650.6353766805946</v>
       </c>
       <c r="D31">
-        <v>4.0455258608335383</v>
+        <v>4.023668508061653</v>
       </c>
       <c r="E31">
-        <v>0.29317527195416915</v>
+        <v>0.83537668059443604</v>
       </c>
       <c r="F31">
-        <v>4.5525860833538268E-2</v>
+        <v>2.3668508061652993E-2</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>2648.9</v>
+        <v>2649.8</v>
       </c>
       <c r="B32">
-        <v>6</v>
+        <v>6.02</v>
       </c>
       <c r="C32">
-        <v>2649.1251115614068</v>
+        <v>2651.0077020298222</v>
       </c>
       <c r="D32">
-        <v>6.0367093799032139</v>
+        <v>6.0256586716410698</v>
       </c>
       <c r="E32">
-        <v>0.22511156140672028</v>
+        <v>1.2077020298220305</v>
       </c>
       <c r="F32">
-        <v>3.6709379903213879E-2</v>
+        <v>5.6586716410702564E-3</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>2648.9</v>
+        <v>2649.8</v>
       </c>
       <c r="B33">
-        <v>8.0299999999999994</v>
+        <v>8.02</v>
       </c>
       <c r="C33">
-        <v>2648.9018969005278</v>
+        <v>2649.8601471627489</v>
       </c>
       <c r="D33">
-        <v>8.0318973629503159</v>
+        <v>8.0009545518646892</v>
       </c>
       <c r="E33">
-        <v>1.8969005277540418E-3</v>
+        <v>6.0147162748762639E-2</v>
       </c>
       <c r="F33">
-        <v>1.8973629503165057E-3</v>
+        <v>-1.9045448135310394E-2</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>2648.9</v>
+        <v>2649.8</v>
       </c>
       <c r="B34">
-        <v>10</v>
+        <v>10.02</v>
       </c>
       <c r="C34">
-        <v>2649.4374351986585</v>
+        <v>2650.4608181360663</v>
       </c>
       <c r="D34">
-        <v>9.9863710562373704</v>
+        <v>9.9852700488256154</v>
       </c>
       <c r="E34">
-        <v>0.53743519865838607</v>
+        <v>0.66081813606615469</v>
       </c>
       <c r="F34">
-        <v>-1.3628943762629575E-2</v>
+        <v>-3.4729951174384155E-2</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>2648.9</v>
+        <v>2649.8</v>
       </c>
       <c r="B35">
-        <v>12</v>
+        <v>12.02</v>
       </c>
       <c r="C35">
-        <v>2649.1418844206123</v>
+        <v>2649.9036883316467</v>
       </c>
       <c r="D35">
-        <v>11.958448849134621</v>
+        <v>11.954715309742795</v>
       </c>
       <c r="E35">
-        <v>0.24188442061222304</v>
+        <v>0.10368833164648095</v>
       </c>
       <c r="F35">
-        <v>-4.1551150865378972E-2</v>
+        <v>-6.5284690257204403E-2</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>2648.9</v>
+        <v>2649.8</v>
       </c>
       <c r="B36">
-        <v>14.03</v>
+        <v>14</v>
       </c>
       <c r="C36">
-        <v>2650.0992147033821</v>
+        <v>2651.1642712776775</v>
       </c>
       <c r="D36">
-        <v>13.928436553312576</v>
+        <v>13.902383899713112</v>
       </c>
       <c r="E36">
-        <v>1.1992147033820402</v>
+        <v>1.3642712776772896</v>
       </c>
       <c r="F36">
-        <v>-0.10156344668742356</v>
+        <v>-9.7616100286888496E-2</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>2648.9</v>
+        <v>2649.8</v>
       </c>
       <c r="B37">
-        <v>15.97</v>
+        <v>16.02</v>
       </c>
       <c r="C37">
-        <v>2651.2193902791118</v>
+        <v>2652.567009933106</v>
       </c>
       <c r="D37">
-        <v>15.855076576359524</v>
+        <v>15.857308233291441</v>
       </c>
       <c r="E37">
-        <v>2.319390279111758</v>
+        <v>2.7670099331057827</v>
       </c>
       <c r="F37">
-        <v>-0.11492342364047659</v>
+        <v>-0.16269176670855856</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>2748.6</v>
+        <v>2749.5</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="C38">
-        <v>2750.177622757989</v>
+        <v>2750.0243025647628</v>
       </c>
       <c r="D38">
-        <v>5.7207830348423291E-2</v>
+        <v>3.9855256134497925E-2</v>
       </c>
       <c r="E38">
-        <v>1.5776227579890474</v>
+        <v>0.52430256476282011</v>
       </c>
       <c r="F38">
-        <v>5.7207830348423291E-2</v>
+        <v>3.9855256134497925E-2</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>2748.6</v>
+        <v>2749.5</v>
       </c>
       <c r="B39">
-        <v>-15.9</v>
+        <v>-15.95</v>
       </c>
       <c r="C39">
-        <v>2750.6815677732284</v>
+        <v>2750.9412910930387</v>
       </c>
       <c r="D39">
-        <v>-15.89693165834637</v>
+        <v>-15.952632735200783</v>
       </c>
       <c r="E39">
-        <v>2.0815677732284712</v>
+        <v>1.4412910930386715</v>
       </c>
       <c r="F39">
-        <v>3.0683416536305685E-3</v>
+        <v>-2.6327352007839977E-3</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40">
-        <v>2748.6</v>
+        <v>2749.5</v>
       </c>
       <c r="B40">
         <v>-14.03</v>
       </c>
       <c r="C40">
-        <v>2748.7796149683004</v>
+        <v>2749.4554104296058</v>
       </c>
       <c r="D40">
-        <v>-14.03645636223276</v>
+        <v>-14.050911221091756</v>
       </c>
       <c r="E40">
-        <v>0.17961496830048418</v>
+        <v>-4.4589570394236944E-2</v>
       </c>
       <c r="F40">
-        <v>-6.456362232761137E-3</v>
+        <v>-2.091122109175636E-2</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41">
-        <v>2748.6</v>
+        <v>2749.5</v>
       </c>
       <c r="B41">
-        <v>-12.03</v>
+        <v>-12</v>
       </c>
       <c r="C41">
-        <v>2748.9223808623242</v>
+        <v>2749.2344358429459</v>
       </c>
       <c r="D41">
-        <v>-12.056083741540041</v>
+        <v>-12.04589695471717</v>
       </c>
       <c r="E41">
-        <v>0.32238086232428032</v>
+        <v>-0.26556415705408654</v>
       </c>
       <c r="F41">
-        <v>-2.6083741540041672E-2</v>
+        <v>-4.5896954717170146E-2</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42">
-        <v>2748.6</v>
+        <v>2749.5</v>
       </c>
       <c r="B42">
         <v>-10.029999999999999</v>
       </c>
       <c r="C42">
-        <v>2748.0625234201948</v>
+        <v>2749.4998893147072</v>
       </c>
       <c r="D42">
-        <v>-10.058494344307894</v>
+        <v>-10.030194072421899</v>
       </c>
       <c r="E42">
-        <v>-0.53747657980511576</v>
+        <v>-1.106852928387525E-4</v>
       </c>
       <c r="F42">
-        <v>-2.8494344307894437E-2</v>
+        <v>-1.9407242190006002E-4</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43">
-        <v>2748.6</v>
+        <v>2749.5</v>
       </c>
       <c r="B43">
-        <v>-8.0299999999999994</v>
+        <v>-8</v>
       </c>
       <c r="C43">
-        <v>2748.4163194794942</v>
+        <v>2748.7132071956848</v>
       </c>
       <c r="D43">
-        <v>-8.0361932117295058</v>
+        <v>-8.0147338445003236</v>
       </c>
       <c r="E43">
-        <v>-0.18368052050573169</v>
+        <v>-0.78679280431515508</v>
       </c>
       <c r="F43">
-        <v>-6.193211729506487E-3</v>
+        <v>-1.4733844500323556E-2</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44">
-        <v>2748.6</v>
+        <v>2749.5</v>
       </c>
       <c r="B44">
         <v>-6</v>
       </c>
       <c r="C44">
-        <v>2749.5154791334385</v>
+        <v>2749.3853553388881</v>
       </c>
       <c r="D44">
-        <v>-6.0173379160715257</v>
+        <v>-6.0186669150374259</v>
       </c>
       <c r="E44">
-        <v>0.91547913343856635</v>
+        <v>-0.11464466111192451</v>
       </c>
       <c r="F44">
-        <v>-1.7337916071525683E-2</v>
+        <v>-1.8666915037425902E-2</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45">
-        <v>2748.6</v>
+        <v>2749.5</v>
       </c>
       <c r="B45">
-        <v>-4.03</v>
+        <v>-4</v>
       </c>
       <c r="C45">
-        <v>2749.2978373751757</v>
+        <v>2750.2947786779887</v>
       </c>
       <c r="D45">
-        <v>-4.0160789855207746</v>
+        <v>-3.9935168442888607</v>
       </c>
       <c r="E45">
-        <v>0.69783737517582267</v>
+        <v>0.79477867798868829</v>
       </c>
       <c r="F45">
-        <v>1.3921014479225668E-2</v>
+        <v>6.4831557111393323E-3</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46">
-        <v>2748.6</v>
+        <v>2749.5</v>
       </c>
       <c r="B46">
-        <v>-2</v>
+        <v>-1.98</v>
       </c>
       <c r="C46">
-        <v>2751.9781083878806</v>
+        <v>2750.8128912253887</v>
       </c>
       <c r="D46">
-        <v>-1.9901749779050768</v>
+        <v>-1.9806552102388209</v>
       </c>
       <c r="E46">
-        <v>3.3781083878807294</v>
+        <v>1.3128912253887393</v>
       </c>
       <c r="F46">
-        <v>9.825022094923197E-3</v>
+        <v>-6.5521023882086915E-4</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47">
-        <v>2748.6</v>
+        <v>2749.5</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
       <c r="C47">
-        <v>2750.2236290466799</v>
+        <v>2749.7918441451538</v>
       </c>
       <c r="D47">
-        <v>2.9546245020152483E-2</v>
+        <v>2.5404846738339076E-2</v>
       </c>
       <c r="E47">
-        <v>1.6236290466799801</v>
+        <v>0.2918441451538456</v>
       </c>
       <c r="F47">
-        <v>2.9546245020152483E-2</v>
+        <v>2.5404846738339076E-2</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48">
-        <v>2748.6</v>
+        <v>2749.5</v>
       </c>
       <c r="B48">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="C48">
-        <v>2749.6288576538263</v>
+        <v>2749.7393376160185</v>
       </c>
       <c r="D48">
-        <v>2.0150929190075542</v>
+        <v>2.0354180299546245</v>
       </c>
       <c r="E48">
-        <v>1.0288576538264351</v>
+        <v>0.23933761601847436</v>
       </c>
       <c r="F48">
-        <v>1.5092919007554162E-2</v>
+        <v>1.541802995462449E-2</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49">
-        <v>2748.6</v>
+        <v>2749.5</v>
       </c>
       <c r="B49">
-        <v>4</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="C49">
-        <v>2748.7962074310849</v>
+        <v>2750.3352916567646</v>
       </c>
       <c r="D49">
-        <v>4.0186804327575913</v>
+        <v>4.0204304925192247</v>
       </c>
       <c r="E49">
-        <v>0.19620743108498573</v>
+        <v>0.8352916567646389</v>
       </c>
       <c r="F49">
-        <v>1.8680432757591348E-2</v>
+        <v>4.3049251922511189E-4</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50">
-        <v>2748.6</v>
+        <v>2749.5</v>
       </c>
       <c r="B50">
-        <v>6</v>
+        <v>6.02</v>
       </c>
       <c r="C50">
-        <v>2749.1292058498007</v>
+        <v>2750.5591666962755</v>
       </c>
       <c r="D50">
-        <v>6.0226456869004439</v>
+        <v>6.0091362289866757</v>
       </c>
       <c r="E50">
-        <v>0.52920584980074636</v>
+        <v>1.0591666962754971</v>
       </c>
       <c r="F50">
-        <v>2.2645686900443884E-2</v>
+        <v>-1.086377101332392E-2</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51">
-        <v>2748.6</v>
+        <v>2749.5</v>
       </c>
       <c r="B51">
-        <v>8.0299999999999994</v>
+        <v>8</v>
       </c>
       <c r="C51">
-        <v>2748.6204181514995</v>
+        <v>2750.2141789424122</v>
       </c>
       <c r="D51">
-        <v>8.0106605437453009</v>
+        <v>7.971628433816262</v>
       </c>
       <c r="E51">
-        <v>2.0418151499598025E-2</v>
+        <v>0.71417894241221802</v>
       </c>
       <c r="F51">
-        <v>-1.9339456254698462E-2</v>
+        <v>-2.837156618373804E-2</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52">
-        <v>2748.6</v>
+        <v>2749.5</v>
       </c>
       <c r="B52">
-        <v>10</v>
+        <v>10.02</v>
       </c>
       <c r="C52">
-        <v>2748.3766351591007</v>
+        <v>2749.9480545370366</v>
       </c>
       <c r="D52">
-        <v>9.9736130826910045</v>
+        <v>9.9876813294592051</v>
       </c>
       <c r="E52">
-        <v>-0.22336484089919395</v>
+        <v>0.44805453703656895</v>
       </c>
       <c r="F52">
-        <v>-2.638691730899545E-2</v>
+        <v>-3.2318670540794514E-2</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53">
-        <v>2748.6</v>
+        <v>2749.5</v>
       </c>
       <c r="B53">
-        <v>12</v>
+        <v>12.02</v>
       </c>
       <c r="C53">
-        <v>2748.1060820320754</v>
+        <v>2749.2898800458761</v>
       </c>
       <c r="D53">
-        <v>11.950599229611912</v>
+        <v>11.936086050305732</v>
       </c>
       <c r="E53">
-        <v>-0.49391796792451714</v>
+        <v>-0.21011995412391116</v>
       </c>
       <c r="F53">
-        <v>-4.9400770388087878E-2</v>
+        <v>-8.3913949694267131E-2</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54">
-        <v>2748.6</v>
+        <v>2749.5</v>
       </c>
       <c r="B54">
-        <v>14</v>
+        <v>14.02</v>
       </c>
       <c r="C54">
-        <v>2748.9728790119561</v>
+        <v>2750.2375048717986</v>
       </c>
       <c r="D54">
-        <v>13.911879204687645</v>
+        <v>13.900958873376515</v>
       </c>
       <c r="E54">
-        <v>0.37287901195622908</v>
+        <v>0.73750487179859192</v>
       </c>
       <c r="F54">
-        <v>-8.8120795312354616E-2</v>
+        <v>-0.11904112662348432</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55">
-        <v>2748.6</v>
+        <v>2749.5</v>
       </c>
       <c r="B55">
         <v>16</v>
       </c>
       <c r="C55">
-        <v>2750.9223724485746</v>
+        <v>2751.7009922560592</v>
       </c>
       <c r="D55">
-        <v>15.865154993204499</v>
+        <v>15.836407889643489</v>
       </c>
       <c r="E55">
-        <v>2.322372448574697</v>
+        <v>2.2009922560591804</v>
       </c>
       <c r="F55">
-        <v>-0.13484500679550138</v>
+        <v>-0.163592110356511</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56">
-        <v>2848.3</v>
+        <v>2849.2</v>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
       <c r="C56">
-        <v>2849.2364760490691</v>
+        <v>2850.0983865333251</v>
       </c>
       <c r="D56">
-        <v>4.0080744914116874E-2</v>
+        <v>3.8738922662169446E-2</v>
       </c>
       <c r="E56">
-        <v>0.93647604906891502</v>
+        <v>0.89838653332526519</v>
       </c>
       <c r="F56">
-        <v>4.0080744914116874E-2</v>
+        <v>3.8738922662169446E-2</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57">
-        <v>2848.3</v>
+        <v>2849.2</v>
       </c>
       <c r="B57">
-        <v>-15.9</v>
+        <v>-15.98</v>
       </c>
       <c r="C57">
-        <v>2849.1146487173187</v>
+        <v>2849.7285587045858</v>
       </c>
       <c r="D57">
-        <v>-15.911349464799395</v>
+        <v>-15.973383765371253</v>
       </c>
       <c r="E57">
-        <v>0.81464871731850508</v>
+        <v>0.52855870458597565</v>
       </c>
       <c r="F57">
-        <v>-1.1349464799394582E-2</v>
+        <v>6.6162346287477192E-3</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58">
-        <v>2848.3</v>
+        <v>2849.2</v>
       </c>
       <c r="B58">
-        <v>-14.03</v>
+        <v>-14.02</v>
       </c>
       <c r="C58">
-        <v>2848.6456177780456</v>
+        <v>2848.9016207017821</v>
       </c>
       <c r="D58">
-        <v>-14.054549145787011</v>
+        <v>-14.01979248657409</v>
       </c>
       <c r="E58">
-        <v>0.34561777804537996</v>
+        <v>-0.29837929821769649</v>
       </c>
       <c r="F58">
-        <v>-2.4549145787011284E-2</v>
+        <v>2.0751342590941135E-4</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59">
-        <v>2848.3</v>
+        <v>2849.2</v>
       </c>
       <c r="B59">
-        <v>-12.03</v>
+        <v>-12</v>
       </c>
       <c r="C59">
-        <v>2847.7238989355869</v>
+        <v>2848.551414034253</v>
       </c>
       <c r="D59">
-        <v>-12.054611703582394</v>
+        <v>-12.005338905437585</v>
       </c>
       <c r="E59">
-        <v>-0.57610106441325115</v>
+        <v>-0.64858596574686089</v>
       </c>
       <c r="F59">
-        <v>-2.4611703582394284E-2</v>
+        <v>-5.3389054375845291E-3</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60">
-        <v>2848.3</v>
+        <v>2849.2</v>
       </c>
       <c r="B60">
-        <v>-10.029999999999999</v>
+        <v>-10.02</v>
       </c>
       <c r="C60">
-        <v>2849.3137090778528</v>
+        <v>2849.3812437877164</v>
       </c>
       <c r="D60">
-        <v>-10.067759759863167</v>
+        <v>-10.020048765621887</v>
       </c>
       <c r="E60">
-        <v>1.0137090778525817</v>
+        <v>0.18124378771653937</v>
       </c>
       <c r="F60">
-        <v>-3.7759759863167375E-2</v>
+        <v>-4.8765621887270072E-5</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61">
-        <v>2848.3</v>
+        <v>2849.2</v>
       </c>
       <c r="B61">
-        <v>-8.0299999999999994</v>
+        <v>-8</v>
       </c>
       <c r="C61">
-        <v>2848.6263502213574</v>
+        <v>2848.821944704745</v>
       </c>
       <c r="D61">
-        <v>-8.043732970075899</v>
+        <v>-7.9923274915817055</v>
       </c>
       <c r="E61">
-        <v>0.32635022135718827</v>
+        <v>-0.37805529525485326</v>
       </c>
       <c r="F61">
-        <v>-1.3732970075899686E-2</v>
+        <v>7.6725084182944769E-3</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62">
-        <v>2848.3</v>
+        <v>2849.2</v>
       </c>
       <c r="B62">
         <v>-6</v>
       </c>
       <c r="C62">
-        <v>2848.458073246215</v>
+        <v>2849.1506367695392</v>
       </c>
       <c r="D62">
-        <v>-6.0230010690971847</v>
+        <v>-5.9840897051362543</v>
       </c>
       <c r="E62">
-        <v>0.15807324621482621</v>
+        <v>-4.9363230460585328E-2</v>
       </c>
       <c r="F62">
-        <v>-2.300106909718469E-2</v>
+        <v>1.5910294863745733E-2</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63">
-        <v>2848.3</v>
+        <v>2849.2</v>
       </c>
       <c r="B63">
-        <v>-4.03</v>
+        <v>-4</v>
       </c>
       <c r="C63">
-        <v>2848.9345334005948</v>
+        <v>2850.1772061304741</v>
       </c>
       <c r="D63">
-        <v>-4.0285237148482258</v>
+        <v>-3.9806624766513399</v>
       </c>
       <c r="E63">
-        <v>0.63453340059459151</v>
+        <v>0.9772061304743147</v>
       </c>
       <c r="F63">
-        <v>1.476285151774448E-3</v>
+        <v>1.9337523348660124E-2</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64">
-        <v>2848.3</v>
+        <v>2849.2</v>
       </c>
       <c r="B64">
-        <v>-2</v>
+        <v>-1.97</v>
       </c>
       <c r="C64">
-        <v>2850.3394110106788</v>
+        <v>2851.7802538855103</v>
       </c>
       <c r="D64">
-        <v>-2.0062521458347211</v>
+        <v>-1.9561954457496749</v>
       </c>
       <c r="E64">
-        <v>2.0394110106785774</v>
+        <v>2.5802538855105013</v>
       </c>
       <c r="F64">
-        <v>-6.2521458347211123E-3</v>
+        <v>1.3804554250325118E-2</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65">
-        <v>2848.3</v>
+        <v>2849.2</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>-0.02</v>
       </c>
       <c r="C65">
-        <v>2849.2481461844195</v>
+        <v>2849.9596066604431</v>
       </c>
       <c r="D65">
-        <v>1.3970620609715803E-2</v>
+        <v>3.9677431023136867E-2</v>
       </c>
       <c r="E65">
-        <v>0.94814618441932907</v>
+        <v>0.75960666044329628</v>
       </c>
       <c r="F65">
-        <v>1.3970620609715803E-2</v>
+        <v>5.967743102313687E-2</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66">
-        <v>2848.3</v>
+        <v>2849.2</v>
       </c>
       <c r="B66">
-        <v>2</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="C66">
-        <v>2849.8205345866718</v>
+        <v>2850.7767929291372</v>
       </c>
       <c r="D66">
-        <v>2.0017215204550727</v>
+        <v>2.065179644732495</v>
       </c>
       <c r="E66">
-        <v>1.5205345866716016</v>
+        <v>1.5767929291373548</v>
       </c>
       <c r="F66">
-        <v>1.7215204550726781E-3</v>
+        <v>3.5179644732495241E-2</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67">
-        <v>2848.3</v>
+        <v>2849.2</v>
       </c>
       <c r="B67">
-        <v>4</v>
+        <v>4.03</v>
       </c>
       <c r="C67">
-        <v>2848.2033965488081</v>
+        <v>2851.035358750411</v>
       </c>
       <c r="D67">
-        <v>4.006887670032742</v>
+        <v>4.0501023545332906</v>
       </c>
       <c r="E67">
-        <v>-9.6603451192095235E-2</v>
+        <v>1.8353587504111601</v>
       </c>
       <c r="F67">
-        <v>6.8876700327420437E-3</v>
+        <v>2.0102354533290345E-2</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68">
-        <v>2848.3</v>
+        <v>2849.2</v>
       </c>
       <c r="B68">
-        <v>6</v>
+        <v>6.03</v>
       </c>
       <c r="C68">
-        <v>2849.1071926346794</v>
+        <v>2849.0838980469016</v>
       </c>
       <c r="D68">
-        <v>6.005773615227544</v>
+        <v>6.0279970585175935</v>
       </c>
       <c r="E68">
-        <v>0.80719263467926794</v>
+        <v>-0.11610195309822302</v>
       </c>
       <c r="F68">
-        <v>5.7736152275440489E-3</v>
+        <v>-2.0029414824067615E-3</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69">
-        <v>2848.3</v>
+        <v>2849.2</v>
       </c>
       <c r="B69">
-        <v>8.0299999999999994</v>
+        <v>8</v>
       </c>
       <c r="C69">
-        <v>2848.5082650091904</v>
+        <v>2849.6359988669983</v>
       </c>
       <c r="D69">
-        <v>7.992335559387115</v>
+        <v>8.0076462586029908</v>
       </c>
       <c r="E69">
-        <v>0.20826500919019963</v>
+        <v>0.43599886699848867</v>
       </c>
       <c r="F69">
-        <v>-3.766444061288432E-2</v>
+        <v>7.6462586029908408E-3</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70">
-        <v>2848.3</v>
+        <v>2849.2</v>
       </c>
       <c r="B70">
-        <v>10</v>
+        <v>10.029999999999999</v>
       </c>
       <c r="C70">
-        <v>2847.989652402337</v>
+        <v>2848.8705213917024</v>
       </c>
       <c r="D70">
-        <v>9.9433528923741878</v>
+        <v>10.00682911221954</v>
       </c>
       <c r="E70">
-        <v>-0.31034759766316711</v>
+        <v>-0.32947860829744968</v>
       </c>
       <c r="F70">
-        <v>-5.6647107625812154E-2</v>
+        <v>-2.3170887780459282E-2</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71">
-        <v>2848.3</v>
+        <v>2849.2</v>
       </c>
       <c r="B71">
-        <v>12</v>
+        <v>12.03</v>
       </c>
       <c r="C71">
-        <v>2847.2746373748982</v>
+        <v>2848.6383522469082</v>
       </c>
       <c r="D71">
-        <v>11.934924314321773</v>
+        <v>11.955437445666885</v>
       </c>
       <c r="E71">
-        <v>-1.0253626251019341</v>
+        <v>-0.56164775309161996</v>
       </c>
       <c r="F71">
-        <v>-6.5075685678227302E-2</v>
+        <v>-7.4562554333114761E-2</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72">
-        <v>2848.3</v>
+        <v>2849.2</v>
       </c>
       <c r="B72">
         <v>14</v>
       </c>
       <c r="C72">
-        <v>2848.0521880885849</v>
+        <v>2850.3150520891786</v>
       </c>
       <c r="D72">
-        <v>13.88603693576753</v>
+        <v>13.897899062112783</v>
       </c>
       <c r="E72">
-        <v>-0.24781191141528325</v>
+        <v>1.1150520891787892</v>
       </c>
       <c r="F72">
-        <v>-0.11396306423247005</v>
+        <v>-0.10210093788721686</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73">
-        <v>2848.3</v>
+        <v>2849.2</v>
       </c>
       <c r="B73">
-        <v>16</v>
+        <v>16.03</v>
       </c>
       <c r="C73">
-        <v>2848.6473354663035</v>
+        <v>2850.4636977130394</v>
       </c>
       <c r="D73">
-        <v>15.854237824151735</v>
+        <v>15.880069216175858</v>
       </c>
       <c r="E73">
-        <v>0.34733546630332057</v>
+        <v>1.263697713039619</v>
       </c>
       <c r="F73">
-        <v>-0.14576217584826523</v>
+        <v>-0.14993078382414282</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74">
-        <v>2948</v>
+        <v>2948.9</v>
       </c>
       <c r="B74">
         <v>0</v>
       </c>
       <c r="C74">
-        <v>2948.4694602697109</v>
+        <v>2950.0146266959059</v>
       </c>
       <c r="D74">
-        <v>3.662830182670844E-2</v>
+        <v>3.8441655605237386E-2</v>
       </c>
       <c r="E74">
-        <v>0.4694602697109076</v>
+        <v>1.1146266959058266</v>
       </c>
       <c r="F74">
-        <v>3.662830182670844E-2</v>
+        <v>3.8441655605237386E-2</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75">
-        <v>2948</v>
+        <v>2948.9</v>
       </c>
       <c r="B75">
-        <v>-15.9</v>
+        <v>-15.95</v>
       </c>
       <c r="C75">
-        <v>2946.5338338583115</v>
+        <v>2948.268970997497</v>
       </c>
       <c r="D75">
-        <v>-15.894181660939703</v>
+        <v>-15.959889447945912</v>
       </c>
       <c r="E75">
-        <v>-1.4661661416885181</v>
+        <v>-0.63102900250305538</v>
       </c>
       <c r="F75">
-        <v>5.818339060297717E-3</v>
+        <v>-9.8894479459126217E-3</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76">
-        <v>2948</v>
+        <v>2948.9</v>
       </c>
       <c r="B76">
-        <v>-14.03</v>
+        <v>-14.02</v>
       </c>
       <c r="C76">
-        <v>2947.4162803330091</v>
+        <v>2947.7692703152293</v>
       </c>
       <c r="D76">
-        <v>-14.045680676681119</v>
+        <v>-14.039966398007229</v>
       </c>
       <c r="E76">
-        <v>-0.58371966699087352</v>
+        <v>-1.130729684770813</v>
       </c>
       <c r="F76">
-        <v>-1.5680676681119721E-2</v>
+        <v>-1.9966398007229103E-2</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77">
-        <v>2948</v>
+        <v>2948.9</v>
       </c>
       <c r="B77">
-        <v>-12.03</v>
+        <v>-12.02</v>
       </c>
       <c r="C77">
-        <v>2947.0887755315302</v>
+        <v>2946.8119478862932</v>
       </c>
       <c r="D77">
-        <v>-12.055358662958447</v>
+        <v>-12.034153136027072</v>
       </c>
       <c r="E77">
-        <v>-0.91122446846975436</v>
+        <v>-2.0880521137069081</v>
       </c>
       <c r="F77">
-        <v>-2.5358662958447908E-2</v>
+        <v>-1.4153136027072577E-2</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78">
-        <v>2948</v>
+        <v>2948.9</v>
       </c>
       <c r="B78">
-        <v>-10.029999999999999</v>
+        <v>-10</v>
       </c>
       <c r="C78">
-        <v>2947.3111476380373</v>
+        <v>2948.5433537676745</v>
       </c>
       <c r="D78">
-        <v>-10.047656667509218</v>
+        <v>-10.013709730132568</v>
       </c>
       <c r="E78">
-        <v>-0.68885236196274491</v>
+        <v>-0.35664623232560189</v>
       </c>
       <c r="F78">
-        <v>-1.7656667509218238E-2</v>
+        <v>-1.3709730132568154E-2</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79">
-        <v>2948</v>
+        <v>2948.9</v>
       </c>
       <c r="B79">
-        <v>-8.0299999999999994</v>
+        <v>-8.02</v>
       </c>
       <c r="C79">
-        <v>2946.7974240407116</v>
+        <v>2949.5047237880526</v>
       </c>
       <c r="D79">
-        <v>-8.0351456859008685</v>
+        <v>-8.006058483128589</v>
       </c>
       <c r="E79">
-        <v>-1.2025759592884242</v>
+        <v>0.60472378805252447</v>
       </c>
       <c r="F79">
-        <v>-5.145685900869168E-3</v>
+        <v>1.3941516871410542E-2</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80">
-        <v>2948</v>
+        <v>2948.9</v>
       </c>
       <c r="B80">
-        <v>-6</v>
+        <v>-5.97</v>
       </c>
       <c r="C80">
-        <v>2947.1034962819908</v>
+        <v>2949.5402280538942</v>
       </c>
       <c r="D80">
-        <v>-6.0151964695373943</v>
+        <v>-5.9894101560719344</v>
       </c>
       <c r="E80">
-        <v>-0.89650371800917128</v>
+        <v>0.64022805389413406</v>
       </c>
       <c r="F80">
-        <v>-1.5196469537394286E-2</v>
+        <v>-1.9410156071934637E-2</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81">
-        <v>2948</v>
+        <v>2948.9</v>
       </c>
       <c r="B81">
-        <v>-4.03</v>
+        <v>-4.0199999999999996</v>
       </c>
       <c r="C81">
-        <v>2948.9567580820526</v>
+        <v>2950.0238476003201</v>
       </c>
       <c r="D81">
-        <v>-4.0196495243435573</v>
+        <v>-3.99750022951355</v>
       </c>
       <c r="E81">
-        <v>0.95675808205260182</v>
+        <v>1.1238476003200049</v>
       </c>
       <c r="F81">
-        <v>1.0350475656442981E-2</v>
+        <v>2.2499770486449577E-2</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82">
-        <v>2948</v>
+        <v>2948.9</v>
       </c>
       <c r="B82">
-        <v>-2</v>
+        <v>-1.97</v>
       </c>
       <c r="C82">
-        <v>2950.1500314792343</v>
+        <v>2950.5797190759454</v>
       </c>
       <c r="D82">
-        <v>-1.988290934818886</v>
+        <v>-1.9573611197793812</v>
       </c>
       <c r="E82">
-        <v>2.1500314792342579</v>
+        <v>1.679719075945286</v>
       </c>
       <c r="F82">
-        <v>1.1709065181114031E-2</v>
+        <v>1.2638880220618764E-2</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83">
-        <v>2948</v>
+        <v>2948.9</v>
       </c>
       <c r="B83">
         <v>0</v>
       </c>
       <c r="C83">
-        <v>2948.5243863429505</v>
+        <v>2949.0460889683727</v>
       </c>
       <c r="D83">
-        <v>1.6459205448044967E-2</v>
+        <v>3.9649626123777627E-2</v>
       </c>
       <c r="E83">
-        <v>0.52438634295049269</v>
+        <v>0.14608896837262364</v>
       </c>
       <c r="F83">
-        <v>1.6459205448044967E-2</v>
+        <v>3.9649626123777627E-2</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84">
-        <v>2948</v>
+        <v>2948.9</v>
       </c>
       <c r="B84">
-        <v>2</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="C84">
-        <v>2948.2982210891987</v>
+        <v>2951.3768658706927</v>
       </c>
       <c r="D84">
-        <v>2.0085998881307345</v>
+        <v>2.0532930053337024</v>
       </c>
       <c r="E84">
-        <v>0.29822108919870516</v>
+        <v>2.4768658706925635</v>
       </c>
       <c r="F84">
-        <v>8.5998881307345343E-3</v>
+        <v>2.3293005333702599E-2</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85">
-        <v>2948</v>
+        <v>2948.9</v>
       </c>
       <c r="B85">
         <v>4</v>
       </c>
       <c r="C85">
-        <v>2948.7284713735799</v>
+        <v>2949.7056652155429</v>
       </c>
       <c r="D85">
-        <v>4.0034952097356076</v>
+        <v>4.0272016963088024</v>
       </c>
       <c r="E85">
-        <v>0.72847137357985048</v>
+        <v>0.80566521554283099</v>
       </c>
       <c r="F85">
-        <v>3.495209735607574E-3</v>
+        <v>2.7201696308802426E-2</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86">
-        <v>2948</v>
+        <v>2948.9</v>
       </c>
       <c r="B86">
-        <v>6</v>
+        <v>6.03</v>
       </c>
       <c r="C86">
-        <v>2947.0252367166786</v>
+        <v>2948.5208773676236</v>
       </c>
       <c r="D86">
-        <v>6.0028815031896494</v>
+        <v>6.0328593327170505</v>
       </c>
       <c r="E86">
-        <v>-0.97476328332140838</v>
+        <v>-0.37912263237649313</v>
       </c>
       <c r="F86">
-        <v>2.8815031896494148E-3</v>
+        <v>2.8593327170503002E-3</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87">
-        <v>2948</v>
+        <v>2948.9</v>
       </c>
       <c r="B87">
         <v>8.0299999999999994</v>
       </c>
       <c r="C87">
-        <v>2946.3889981245775</v>
+        <v>2948.4533062002643</v>
       </c>
       <c r="D87">
-        <v>7.9944971497530943</v>
+        <v>8.0184989658034187</v>
       </c>
       <c r="E87">
-        <v>-1.6110018754225166</v>
+        <v>-0.44669379973584</v>
       </c>
       <c r="F87">
-        <v>-3.5502850246905027E-2</v>
+        <v>-1.1501034196580662E-2</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88">
-        <v>2948</v>
+        <v>2948.9</v>
       </c>
       <c r="B88">
-        <v>10</v>
+        <v>10.029999999999999</v>
       </c>
       <c r="C88">
-        <v>2945.1908402467425</v>
+        <v>2948.6139288727518</v>
       </c>
       <c r="D88">
-        <v>9.9505183492112632</v>
+        <v>9.9889131491232952</v>
       </c>
       <c r="E88">
-        <v>-2.8091597532575179</v>
+        <v>-0.28607112724830586</v>
       </c>
       <c r="F88">
-        <v>-4.9481650788736786E-2</v>
+        <v>-4.1086850876704162E-2</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89">
-        <v>2948</v>
+        <v>2948.9</v>
       </c>
       <c r="B89">
         <v>12</v>
       </c>
       <c r="C89">
-        <v>2945.8079764382514</v>
+        <v>2948.0139280037683</v>
       </c>
       <c r="D89">
-        <v>11.924881553985504</v>
+        <v>11.942608218485457</v>
       </c>
       <c r="E89">
-        <v>-2.1920235617485559</v>
+        <v>-0.88607199623174893</v>
       </c>
       <c r="F89">
-        <v>-7.5118446014496243E-2</v>
+        <v>-5.7391781514542828E-2</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90">
-        <v>2948</v>
+        <v>2948.9</v>
       </c>
       <c r="B90">
-        <v>14</v>
+        <v>14.03</v>
       </c>
       <c r="C90">
-        <v>2945.9947304882739</v>
+        <v>2947.6935885565717</v>
       </c>
       <c r="D90">
-        <v>13.891980878235982</v>
+        <v>13.915481514822986</v>
       </c>
       <c r="E90">
-        <v>-2.0052695117260555</v>
+        <v>-1.206411443428351</v>
       </c>
       <c r="F90">
-        <v>-0.10801912176401807</v>
+        <v>-0.11451848517701357</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91">
-        <v>2948</v>
+        <v>2948.9</v>
       </c>
       <c r="B91">
         <v>16</v>
       </c>
       <c r="C91">
-        <v>2946.3297159756185</v>
+        <v>2949.0200260898132</v>
       </c>
       <c r="D91">
-        <v>15.838112013635207</v>
+        <v>15.844675105324143</v>
       </c>
       <c r="E91">
-        <v>-1.6702840243815444</v>
+        <v>0.12002608981310914</v>
       </c>
       <c r="F91">
-        <v>-0.16188798636479262</v>
+        <v>-0.15532489467585719</v>
       </c>
     </row>
   </sheetData>

--- a/cam8_validation_result.xlsx
+++ b/cam8_validation_result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\voies\Desktop\GodEyesProject\CalibPro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7111BD12-65BB-4E1C-B728-21FCEDC5087D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D435E3-A781-43CB-8D51-6D56E5F9A267}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15257" yWindow="3086" windowWidth="16192" windowHeight="13225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16774" yWindow="4500" windowWidth="16192" windowHeight="13226" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -223,274 +223,274 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="90"/>
                 <c:pt idx="0">
-                  <c:v>-1.1364853099503307</c:v>
+                  <c:v>-2.1476869718067064</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9969876040972849</c:v>
+                  <c:v>-1.8681698842319747</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.26946249917591558</c:v>
+                  <c:v>-2.8298896386454544</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.38268328604408453</c:v>
+                  <c:v>-2.3219295746039279</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.29721815057109779</c:v>
+                  <c:v>-2.0592790978430457</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.49804149716237589</c:v>
+                  <c:v>-1.9263985863258313</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.40089999714109581</c:v>
+                  <c:v>-2.524797513224712</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.38269267704481535</c:v>
+                  <c:v>-1.5519308996790642</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.33207750846258932</c:v>
+                  <c:v>-1.4712344028612279</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.5359445026156209</c:v>
+                  <c:v>-1.9954681003923724</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.51814505647416809</c:v>
+                  <c:v>-2.2680880347479615</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.39687285742684253</c:v>
+                  <c:v>-1.5192736831268121</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.23584963474604592</c:v>
+                  <c:v>-1.373255920079373</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.25380109464776979</c:v>
+                  <c:v>-2.0855461977971572</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.39798801305460074</c:v>
+                  <c:v>-3.0879077168224285</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-1.8443533513618604E-2</c:v>
+                  <c:v>-1.6158504188747429</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.281470369166982</c:v>
+                  <c:v>-0.90355961759769343</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.0098531970288604</c:v>
+                  <c:v>-0.68892970760953176</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.44208923759697427</c:v>
+                  <c:v>-0.7310556061652278</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.351061993532312</c:v>
+                  <c:v>-1.3246780015497279</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.70540070699826174</c:v>
+                  <c:v>-2.3211818909753674</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-0.6727154733343923</c:v>
+                  <c:v>-3.1554001189460905</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.18882718354552708</c:v>
+                  <c:v>-1.0613977733000866</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.21755477145052282</c:v>
+                  <c:v>-2.6982011296868222</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.50615067813350834</c:v>
+                  <c:v>-2.4657381095453275</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-0.38309092861527461</c:v>
+                  <c:v>-1.3959833171393257</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.2722739819669187</c:v>
+                  <c:v>-2.1018203152189017</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-0.71140860581772358</c:v>
+                  <c:v>-1.3795290327443581</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.68875885125680725</c:v>
+                  <c:v>-1.0643781505332299</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.83537668059443604</c:v>
+                  <c:v>-1.1006281339568886</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.2077020298220305</c:v>
+                  <c:v>-1.6657497469477676</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>6.0147162748762639E-2</c:v>
+                  <c:v>-2.7336514568164603</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.66081813606615469</c:v>
+                  <c:v>-3.0283768156214137</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.10368833164648095</c:v>
+                  <c:v>-3.0217939361427852</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.3642712776772896</c:v>
+                  <c:v>-2.1184774522989755</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.7670099331057827</c:v>
+                  <c:v>-1.2337094863651146</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.52430256476282011</c:v>
+                  <c:v>-1.1546829191352117</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.4412910930386715</c:v>
+                  <c:v>-1.1243912381560222</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-4.4589570394236944E-2</c:v>
+                  <c:v>-2.0299649376715934</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-0.26556415705408654</c:v>
+                  <c:v>-1.9125770028917941</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-1.106852928387525E-4</c:v>
+                  <c:v>-2.6964135735074706</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-0.78679280431515508</c:v>
+                  <c:v>-3.0835720807963298</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-0.11464466111192451</c:v>
+                  <c:v>-2.0528297468067649</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.79477867798868829</c:v>
+                  <c:v>-1.3226909944673935</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.3128912253887393</c:v>
+                  <c:v>-1.4629174189976766</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.2918441451538456</c:v>
+                  <c:v>-1.6922685167328382</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.23933761601847436</c:v>
+                  <c:v>-1.7250817748690679</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.8352916567646389</c:v>
+                  <c:v>-1.7589839480087903</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.0591666962754971</c:v>
+                  <c:v>-2.6638215356779256</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.71417894241221802</c:v>
+                  <c:v>-2.5809494088034626</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.44805453703656895</c:v>
+                  <c:v>-2.4602828171337023</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-0.21011995412391116</c:v>
+                  <c:v>-3.2273970434584953</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.73750487179859192</c:v>
+                  <c:v>-3.0362963556635805</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2.2009922560591804</c:v>
+                  <c:v>-1.1341400371684358</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.89838653332526519</c:v>
+                  <c:v>-0.18207645419806795</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.52855870458597565</c:v>
+                  <c:v>-1.4527212258039981</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-0.29837929821769649</c:v>
+                  <c:v>-2.3600386391767643</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-0.64858596574686089</c:v>
+                  <c:v>-3.3125431287476204</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.18124378771653937</c:v>
+                  <c:v>-3.0180651314312854</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-0.37805529525485326</c:v>
+                  <c:v>-1.9536528186308715</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-4.9363230460585328E-2</c:v>
+                  <c:v>-0.66532136939849806</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.9772061304743147</c:v>
+                  <c:v>-1.748279922990605</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2.5802538855105013</c:v>
+                  <c:v>-1.0065373701886529</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.75960666044329628</c:v>
+                  <c:v>-0.54129684286908741</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.5767929291373548</c:v>
+                  <c:v>-0.57541975920776167</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.8353587504111601</c:v>
+                  <c:v>-2.3157197211539824</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-0.11610195309822302</c:v>
+                  <c:v>-2.2843405587291272</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.43599886699848867</c:v>
+                  <c:v>-3.566370357402775</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-0.32947860829744968</c:v>
+                  <c:v>-3.0309888583738029</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-0.56164775309161996</c:v>
+                  <c:v>-4.4506718932993863</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.1150520891787892</c:v>
+                  <c:v>-0.94178524939661656</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.263697713039619</c:v>
+                  <c:v>-0.74147484273589725</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.1146266959058266</c:v>
+                  <c:v>-1.8435081352031375</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-0.63102900250305538</c:v>
+                  <c:v>-3.5169549225693117</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-1.130729684770813</c:v>
+                  <c:v>-2.2402746888274123</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-2.0880521137069081</c:v>
+                  <c:v>-2.9985412681648995</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-0.35664623232560189</c:v>
+                  <c:v>-2.2114616453400231</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.60472378805252447</c:v>
+                  <c:v>-2.8838606943977538</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.64022805389413406</c:v>
+                  <c:v>-2.6258809226319499</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.1238476003200049</c:v>
+                  <c:v>-1.6042403027563523</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.679719075945286</c:v>
+                  <c:v>9.3980309068683709E-2</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.14608896837262364</c:v>
+                  <c:v>-2.2556046027375487</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>2.4768658706925635</c:v>
+                  <c:v>-2.5224171050795121</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.80566521554283099</c:v>
+                  <c:v>-0.64362587790037651</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>-0.37912263237649313</c:v>
+                  <c:v>-1.2994683994024854</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-0.44669379973584</c:v>
+                  <c:v>-3.3408242354557842</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-0.28607112724830586</c:v>
+                  <c:v>-3.8362878015814204</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-0.88607199623174893</c:v>
+                  <c:v>-4.2622062731543338</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-1.206411443428351</c:v>
+                  <c:v>-1.4038494964697747</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.12002608981310914</c:v>
+                  <c:v>-1.0168302507345288</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2259,48 +2259,48 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>2550.1</v>
+        <v>2551</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2548.9635146900496</v>
+        <v>2548.8523130281933</v>
       </c>
       <c r="D2">
-        <v>4.513918364538802E-2</v>
+        <v>-2.1346926681102628E-2</v>
       </c>
       <c r="E2">
-        <v>-1.1364853099503307</v>
+        <v>-2.1476869718067064</v>
       </c>
       <c r="F2">
-        <v>4.513918364538802E-2</v>
+        <v>-2.1346926681102628E-2</v>
       </c>
       <c r="H2" t="s">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.77956784903419951</v>
+        <v>2.0078592096153391</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>2550.1</v>
+        <v>2551</v>
       </c>
       <c r="B3">
-        <v>-15.95</v>
+        <v>-15.93</v>
       </c>
       <c r="C3">
-        <v>2552.0969876040972</v>
+        <v>2549.131830115768</v>
       </c>
       <c r="D3">
-        <v>-15.968305209892067</v>
+        <v>-15.906143355711899</v>
       </c>
       <c r="E3">
-        <v>1.9969876040972849</v>
+        <v>-1.8681698842319747</v>
       </c>
       <c r="F3">
-        <v>-1.8305209892067964E-2</v>
+        <v>2.3856644288100526E-2</v>
       </c>
       <c r="H3" t="s">
         <v>1</v>
@@ -2311,1780 +2311,1780 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>2550.1</v>
+        <v>2551</v>
       </c>
       <c r="B4">
-        <v>-14.03</v>
+        <v>-14.05</v>
       </c>
       <c r="C4">
-        <v>2550.3694624991758</v>
+        <v>2548.1701103613545</v>
       </c>
       <c r="D4">
-        <v>-14.045927355182148</v>
+        <v>-14.027322709940783</v>
       </c>
       <c r="E4">
-        <v>0.26946249917591558</v>
+        <v>-2.8298896386454544</v>
       </c>
       <c r="F4">
-        <v>-1.5927355182148162E-2</v>
+        <v>2.267729005921737E-2</v>
       </c>
       <c r="H4" t="s">
         <v>2</v>
       </c>
       <c r="I4">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>2550.1</v>
+        <v>2551</v>
       </c>
       <c r="B5">
-        <v>-12.03</v>
+        <v>-12</v>
       </c>
       <c r="C5">
-        <v>2549.7173167139558</v>
+        <v>2548.6780704253961</v>
       </c>
       <c r="D5">
-        <v>-12.028913993358985</v>
+        <v>-12.010394112778835</v>
       </c>
       <c r="E5">
-        <v>-0.38268328604408453</v>
+        <v>-2.3219295746039279</v>
       </c>
       <c r="F5">
-        <v>1.0860066410138813E-3</v>
+        <v>-1.0394112778834952E-2</v>
       </c>
       <c r="H5" t="s">
         <v>3</v>
       </c>
       <c r="I5">
-        <v>0.93333333333333335</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>2550.1</v>
+        <v>2551</v>
       </c>
       <c r="B6">
         <v>-10</v>
       </c>
       <c r="C6">
-        <v>2549.8027818494288</v>
+        <v>2548.940720902157</v>
       </c>
       <c r="D6">
-        <v>-10.029466711352233</v>
+        <v>-10.034983997925089</v>
       </c>
       <c r="E6">
-        <v>-0.29721815057109779</v>
+        <v>-2.0592790978430457</v>
       </c>
       <c r="F6">
-        <v>-2.9466711352233332E-2</v>
+        <v>-3.4983997925088772E-2</v>
       </c>
       <c r="H6" t="s">
         <v>4</v>
       </c>
       <c r="I6">
-        <v>2.2009922560591804</v>
+        <v>3.5169549225693117</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>2550.1</v>
+        <v>2551</v>
       </c>
       <c r="B7">
-        <v>-8.0299999999999994</v>
+        <v>-8</v>
       </c>
       <c r="C7">
-        <v>2549.6019585028375</v>
+        <v>2549.0736014136742</v>
       </c>
       <c r="D7">
-        <v>-8.0268503269374971</v>
+        <v>-8.0423991206649905</v>
       </c>
       <c r="E7">
-        <v>-0.49804149716237589</v>
+        <v>-1.9263985863258313</v>
       </c>
       <c r="F7">
-        <v>3.1496730625022451E-3</v>
+        <v>-4.2399120664990519E-2</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>2550.1</v>
+        <v>2551</v>
       </c>
       <c r="B8">
-        <v>-5.98</v>
+        <v>-6</v>
       </c>
       <c r="C8">
-        <v>2549.6991000028588</v>
+        <v>2548.4752024867753</v>
       </c>
       <c r="D8">
-        <v>-5.9809734031638282</v>
+        <v>-6.0404904728442617</v>
       </c>
       <c r="E8">
-        <v>-0.40089999714109581</v>
+        <v>-2.524797513224712</v>
       </c>
       <c r="F8">
-        <v>-9.7340316382776848E-4</v>
+        <v>-4.049047284426166E-2</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>2550.1</v>
+        <v>2551</v>
       </c>
       <c r="B9">
         <v>-4</v>
       </c>
       <c r="C9">
-        <v>2549.7173073229551</v>
+        <v>2549.4480691003209</v>
       </c>
       <c r="D9">
-        <v>-3.999051376905999</v>
+        <v>-4.0529344820896744</v>
       </c>
       <c r="E9">
-        <v>-0.38269267704481535</v>
+        <v>-1.5519308996790642</v>
       </c>
       <c r="F9">
-        <v>9.4862309400101097E-4</v>
+        <v>-5.2934482089674439E-2</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>2550.1</v>
+        <v>2551</v>
       </c>
       <c r="B10">
-        <v>-1.98</v>
+        <v>-2.0299999999999998</v>
       </c>
       <c r="C10">
-        <v>2550.4320775084625</v>
+        <v>2549.5287655971388</v>
       </c>
       <c r="D10">
-        <v>-1.9795660326497946</v>
+        <v>-2.0487586457695839</v>
       </c>
       <c r="E10">
-        <v>0.33207750846258932</v>
+        <v>-1.4712344028612279</v>
       </c>
       <c r="F10">
-        <v>4.3396735020539978E-4</v>
+        <v>-1.8758645769584081E-2</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>2550.1</v>
+        <v>2551</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="C11">
-        <v>2548.5640554973843</v>
+        <v>2549.0045318996076</v>
       </c>
       <c r="D11">
-        <v>2.2771562724844707E-2</v>
+        <v>-2.1022857513236539E-2</v>
       </c>
       <c r="E11">
-        <v>-1.5359445026156209</v>
+        <v>-1.9954681003923724</v>
       </c>
       <c r="F11">
-        <v>2.2771562724844707E-2</v>
+        <v>-4.1022857513236539E-2</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>2550.1</v>
+        <v>2551</v>
       </c>
       <c r="B12">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>2549.5818549435257</v>
+        <v>2548.731911965252</v>
       </c>
       <c r="D12">
-        <v>2.0340381651860913</v>
+        <v>1.951718508635103</v>
       </c>
       <c r="E12">
-        <v>-0.51814505647416809</v>
+        <v>-2.2680880347479615</v>
       </c>
       <c r="F12">
-        <v>1.4038165186091245E-2</v>
+        <v>-4.8281491364897011E-2</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>2550.1</v>
+        <v>2551</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>3.97</v>
       </c>
       <c r="C13">
-        <v>2550.4968728574268</v>
+        <v>2549.4807263168732</v>
       </c>
       <c r="D13">
-        <v>4.0317369698760039</v>
+        <v>3.9586997029063604</v>
       </c>
       <c r="E13">
-        <v>0.39687285742684253</v>
+        <v>-1.5192736831268121</v>
       </c>
       <c r="F13">
-        <v>3.173696987600394E-2</v>
+        <v>-1.1300297093639777E-2</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>2550.1</v>
+        <v>2551</v>
       </c>
       <c r="B14">
-        <v>6.02</v>
+        <v>6</v>
       </c>
       <c r="C14">
-        <v>2550.335849634746</v>
+        <v>2549.6267440799206</v>
       </c>
       <c r="D14">
-        <v>6.0434325226991144</v>
+        <v>5.9883192081940804</v>
       </c>
       <c r="E14">
-        <v>0.23584963474604592</v>
+        <v>-1.373255920079373</v>
       </c>
       <c r="F14">
-        <v>2.3432522699114777E-2</v>
+        <v>-1.1680791805919633E-2</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>2550.1</v>
+        <v>2551</v>
       </c>
       <c r="B15">
-        <v>8.02</v>
+        <v>7.97</v>
       </c>
       <c r="C15">
-        <v>2549.8461989053521</v>
+        <v>2548.9144538022028</v>
       </c>
       <c r="D15">
-        <v>8.0184882825158894</v>
+        <v>7.9835257618830457</v>
       </c>
       <c r="E15">
-        <v>-0.25380109464776979</v>
+        <v>-2.0855461977971572</v>
       </c>
       <c r="F15">
-        <v>-1.5117174841101644E-3</v>
+        <v>1.3525761883045995E-2</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>2550.1</v>
+        <v>2551</v>
       </c>
       <c r="B16">
-        <v>10.02</v>
+        <v>9.9700000000000006</v>
       </c>
       <c r="C16">
-        <v>2550.4979880130545</v>
+        <v>2547.9120922831776</v>
       </c>
       <c r="D16">
-        <v>9.9814956240042925</v>
+        <v>9.9984553549051682</v>
       </c>
       <c r="E16">
-        <v>0.39798801305460074</v>
+        <v>-3.0879077168224285</v>
       </c>
       <c r="F16">
-        <v>-3.8504375995707107E-2</v>
+        <v>2.8455354905167596E-2</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>2550.1</v>
+        <v>2551</v>
       </c>
       <c r="B17">
-        <v>12</v>
+        <v>11.95</v>
       </c>
       <c r="C17">
-        <v>2550.0815564664863</v>
+        <v>2549.3841495811253</v>
       </c>
       <c r="D17">
-        <v>11.954612089180278</v>
+        <v>12.003725614388969</v>
       </c>
       <c r="E17">
-        <v>-1.8443533513618604E-2</v>
+        <v>-1.6158504188747429</v>
       </c>
       <c r="F17">
-        <v>-4.5387910819721711E-2</v>
+        <v>5.3725614388969944E-2</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>2550.1</v>
+        <v>2551</v>
       </c>
       <c r="B18">
-        <v>14.02</v>
+        <v>13.97</v>
       </c>
       <c r="C18">
-        <v>2551.3814703691669</v>
+        <v>2550.0964403824023</v>
       </c>
       <c r="D18">
-        <v>13.93110769457483</v>
+        <v>14.026836819294113</v>
       </c>
       <c r="E18">
-        <v>1.281470369166982</v>
+        <v>-0.90355961759769343</v>
       </c>
       <c r="F18">
-        <v>-8.8892305425169127E-2</v>
+        <v>5.6836819294112217E-2</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>2550.1</v>
+        <v>2551</v>
       </c>
       <c r="B19">
-        <v>16.02</v>
+        <v>15.97</v>
       </c>
       <c r="C19">
-        <v>2553.1098531970288</v>
+        <v>2550.3110702923905</v>
       </c>
       <c r="D19">
-        <v>15.87333740235111</v>
+        <v>16.01407490822147</v>
       </c>
       <c r="E19">
-        <v>3.0098531970288604</v>
+        <v>-0.68892970760953176</v>
       </c>
       <c r="F19">
-        <v>-0.14666259764888956</v>
+        <v>4.4074908221469755E-2</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>2649.8</v>
+        <v>2650.7</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20">
-        <v>2649.3579107624032</v>
+        <v>2649.9689443938346</v>
       </c>
       <c r="D20">
-        <v>3.3831918055889615E-2</v>
+        <v>-2.1769633398842275E-2</v>
       </c>
       <c r="E20">
-        <v>-0.44208923759697427</v>
+        <v>-0.7310556061652278</v>
       </c>
       <c r="F20">
-        <v>3.3831918055889615E-2</v>
+        <v>-2.1769633398842275E-2</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>2649.8</v>
+        <v>2650.7</v>
       </c>
       <c r="B21">
-        <v>-15.95</v>
+        <v>-15.93</v>
       </c>
       <c r="C21">
-        <v>2651.1510619935325</v>
+        <v>2649.3753219984501</v>
       </c>
       <c r="D21">
-        <v>-15.963307649496624</v>
+        <v>-15.89909485951034</v>
       </c>
       <c r="E21">
-        <v>1.351061993532312</v>
+        <v>-1.3246780015497279</v>
       </c>
       <c r="F21">
-        <v>-1.3307649496624663E-2</v>
+        <v>3.0905140489659644E-2</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>2649.8</v>
+        <v>2650.7</v>
       </c>
       <c r="B22">
         <v>-14.03</v>
       </c>
       <c r="C22">
-        <v>2650.5054007069984</v>
+        <v>2648.3788181090245</v>
       </c>
       <c r="D22">
-        <v>-14.049923814046291</v>
+        <v>-14.00067276449602</v>
       </c>
       <c r="E22">
-        <v>0.70540070699826174</v>
+        <v>-2.3211818909753674</v>
       </c>
       <c r="F22">
-        <v>-1.9923814046292065E-2</v>
+        <v>2.932723550397931E-2</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>2649.8</v>
+        <v>2650.7</v>
       </c>
       <c r="B23">
         <v>-12.03</v>
       </c>
       <c r="C23">
-        <v>2649.1272845266658</v>
+        <v>2647.5445998810537</v>
       </c>
       <c r="D23">
-        <v>-12.041308867305251</v>
+        <v>-12.01369995291199</v>
       </c>
       <c r="E23">
-        <v>-0.6727154733343923</v>
+        <v>-3.1554001189460905</v>
       </c>
       <c r="F23">
-        <v>-1.1308867305251269E-2</v>
+        <v>1.6300047088009251E-2</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>2649.8</v>
+        <v>2650.7</v>
       </c>
       <c r="B24">
         <v>-10</v>
       </c>
       <c r="C24">
-        <v>2649.6111728164547</v>
+        <v>2649.6386022266997</v>
       </c>
       <c r="D24">
-        <v>-10.014857596881045</v>
+        <v>-10.016477378134963</v>
       </c>
       <c r="E24">
-        <v>-0.18882718354552708</v>
+        <v>-1.0613977733000866</v>
       </c>
       <c r="F24">
-        <v>-1.4857596881045154E-2</v>
+        <v>-1.6477378134963416E-2</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>2649.8</v>
+        <v>2650.7</v>
       </c>
       <c r="B25">
-        <v>-8.0299999999999994</v>
+        <v>-8</v>
       </c>
       <c r="C25">
-        <v>2649.5824452285497</v>
+        <v>2648.001798870313</v>
       </c>
       <c r="D25">
-        <v>-8.0238266083175755</v>
+        <v>-8.0382936078408687</v>
       </c>
       <c r="E25">
-        <v>-0.21755477145052282</v>
+        <v>-2.6982011296868222</v>
       </c>
       <c r="F25">
-        <v>6.1733916824238122E-3</v>
+        <v>-3.829360784086866E-2</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>2649.8</v>
+        <v>2650.7</v>
       </c>
       <c r="B26">
-        <v>-5.98</v>
+        <v>-6</v>
       </c>
       <c r="C26">
-        <v>2650.3061506781337</v>
+        <v>2648.2342618904545</v>
       </c>
       <c r="D26">
-        <v>-5.9925563063454055</v>
+        <v>-6.0500258027398726</v>
       </c>
       <c r="E26">
-        <v>0.50615067813350834</v>
+        <v>-2.4657381095453275</v>
       </c>
       <c r="F26">
-        <v>-1.2556306345405055E-2</v>
+        <v>-5.002580273987256E-2</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>2649.8</v>
+        <v>2650.7</v>
       </c>
       <c r="B27">
         <v>-4</v>
       </c>
       <c r="C27">
-        <v>2649.4169090713849</v>
+        <v>2649.3040166828605</v>
       </c>
       <c r="D27">
-        <v>-3.985862069528618</v>
+        <v>-4.0467616248741995</v>
       </c>
       <c r="E27">
-        <v>-0.38309092861527461</v>
+        <v>-1.3959833171393257</v>
       </c>
       <c r="F27">
-        <v>1.413793047138201E-2</v>
+        <v>-4.6761624874199548E-2</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>2649.8</v>
+        <v>2650.7</v>
       </c>
       <c r="B28">
-        <v>-1.98</v>
+        <v>-2.0299999999999998</v>
       </c>
       <c r="C28">
-        <v>2651.0722739819671</v>
+        <v>2648.5981796847809</v>
       </c>
       <c r="D28">
-        <v>-1.9769419606099128</v>
+        <v>-2.0401455829140955</v>
       </c>
       <c r="E28">
-        <v>1.2722739819669187</v>
+        <v>-2.1018203152189017</v>
       </c>
       <c r="F28">
-        <v>3.0580393900871972E-3</v>
+        <v>-1.014558291409573E-2</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>2649.8</v>
+        <v>2650.7</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="C29">
-        <v>2649.0885913941825</v>
+        <v>2649.3204709672555</v>
       </c>
       <c r="D29">
-        <v>2.3574265164513095E-2</v>
+        <v>-2.2613112020469454E-2</v>
       </c>
       <c r="E29">
-        <v>-0.71140860581772358</v>
+        <v>-1.3795290327443581</v>
       </c>
       <c r="F29">
-        <v>2.3574265164513095E-2</v>
+        <v>-5.2613112020469449E-2</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>2649.8</v>
+        <v>2650.7</v>
       </c>
       <c r="B30">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="C30">
-        <v>2650.488758851257</v>
+        <v>2649.6356218494666</v>
       </c>
       <c r="D30">
-        <v>2.0323521724318461</v>
+        <v>1.9527332505938444</v>
       </c>
       <c r="E30">
-        <v>0.68875885125680725</v>
+        <v>-1.0643781505332299</v>
       </c>
       <c r="F30">
-        <v>1.2352172431846054E-2</v>
+        <v>-1.7266749406155579E-2</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>2649.8</v>
+        <v>2650.7</v>
       </c>
       <c r="B31">
         <v>4</v>
       </c>
       <c r="C31">
-        <v>2650.6353766805946</v>
+        <v>2649.5993718660429</v>
       </c>
       <c r="D31">
-        <v>4.023668508061653</v>
+        <v>3.9829843627413886</v>
       </c>
       <c r="E31">
-        <v>0.83537668059443604</v>
+        <v>-1.1006281339568886</v>
       </c>
       <c r="F31">
-        <v>2.3668508061652993E-2</v>
+        <v>-1.7015637258611438E-2</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>2649.8</v>
+        <v>2650.7</v>
       </c>
       <c r="B32">
-        <v>6.02</v>
+        <v>6</v>
       </c>
       <c r="C32">
-        <v>2651.0077020298222</v>
+        <v>2649.0342502530521</v>
       </c>
       <c r="D32">
-        <v>6.0256586716410698</v>
+        <v>5.9842279504118885</v>
       </c>
       <c r="E32">
-        <v>1.2077020298220305</v>
+        <v>-1.6657497469477676</v>
       </c>
       <c r="F32">
-        <v>5.6586716410702564E-3</v>
+        <v>-1.5772049588111514E-2</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>2649.8</v>
+        <v>2650.7</v>
       </c>
       <c r="B33">
-        <v>8.02</v>
+        <v>7.97</v>
       </c>
       <c r="C33">
-        <v>2649.8601471627489</v>
+        <v>2647.9663485431834</v>
       </c>
       <c r="D33">
-        <v>8.0009545518646892</v>
+        <v>7.9745462949458359</v>
       </c>
       <c r="E33">
-        <v>6.0147162748762639E-2</v>
+        <v>-2.7336514568164603</v>
       </c>
       <c r="F33">
-        <v>-1.9045448135310394E-2</v>
+        <v>4.5462949458361379E-3</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>2649.8</v>
+        <v>2650.7</v>
       </c>
       <c r="B34">
-        <v>10.02</v>
+        <v>9.9700000000000006</v>
       </c>
       <c r="C34">
-        <v>2650.4608181360663</v>
+        <v>2647.6716231843784</v>
       </c>
       <c r="D34">
-        <v>9.9852700488256154</v>
+        <v>9.9839567534418059</v>
       </c>
       <c r="E34">
-        <v>0.66081813606615469</v>
+        <v>-3.0283768156214137</v>
       </c>
       <c r="F34">
-        <v>-3.4729951174384155E-2</v>
+        <v>1.3956753441805247E-2</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>2649.8</v>
+        <v>2650.7</v>
       </c>
       <c r="B35">
-        <v>12.02</v>
+        <v>11.95</v>
       </c>
       <c r="C35">
-        <v>2649.9036883316467</v>
+        <v>2647.678206063857</v>
       </c>
       <c r="D35">
-        <v>11.954715309742795</v>
+        <v>11.97393103110914</v>
       </c>
       <c r="E35">
-        <v>0.10368833164648095</v>
+        <v>-3.0217939361427852</v>
       </c>
       <c r="F35">
-        <v>-6.5284690257204403E-2</v>
+        <v>2.3931031109141188E-2</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>2649.8</v>
+        <v>2650.7</v>
       </c>
       <c r="B36">
-        <v>14</v>
+        <v>13.97</v>
       </c>
       <c r="C36">
-        <v>2651.1642712776775</v>
+        <v>2648.5815225477008</v>
       </c>
       <c r="D36">
-        <v>13.902383899713112</v>
+        <v>14.004676481666159</v>
       </c>
       <c r="E36">
-        <v>1.3642712776772896</v>
+        <v>-2.1184774522989755</v>
       </c>
       <c r="F36">
-        <v>-9.7616100286888496E-2</v>
+        <v>3.4676481666158665E-2</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>2649.8</v>
+        <v>2650.7</v>
       </c>
       <c r="B37">
-        <v>16.02</v>
+        <v>15.97</v>
       </c>
       <c r="C37">
-        <v>2652.567009933106</v>
+        <v>2649.4662905136347</v>
       </c>
       <c r="D37">
-        <v>15.857308233291441</v>
+        <v>16.00096646732343</v>
       </c>
       <c r="E37">
-        <v>2.7670099331057827</v>
+        <v>-1.2337094863651146</v>
       </c>
       <c r="F37">
-        <v>-0.16269176670855856</v>
+        <v>3.0966467323429114E-2</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>2749.5</v>
+        <v>2750.4</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="C38">
-        <v>2750.0243025647628</v>
+        <v>2749.2453170808649</v>
       </c>
       <c r="D38">
-        <v>3.9855256134497925E-2</v>
+        <v>-1.1209149190508428E-2</v>
       </c>
       <c r="E38">
-        <v>0.52430256476282011</v>
+        <v>-1.1546829191352117</v>
       </c>
       <c r="F38">
-        <v>3.9855256134497925E-2</v>
+        <v>-1.1209149190508428E-2</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>2749.5</v>
+        <v>2750.4</v>
       </c>
       <c r="B39">
-        <v>-15.95</v>
+        <v>-15.93</v>
       </c>
       <c r="C39">
-        <v>2750.9412910930387</v>
+        <v>2749.2756087618441</v>
       </c>
       <c r="D39">
-        <v>-15.952632735200783</v>
+        <v>-15.881367671553772</v>
       </c>
       <c r="E39">
-        <v>1.4412910930386715</v>
+        <v>-1.1243912381560222</v>
       </c>
       <c r="F39">
-        <v>-2.6327352007839977E-3</v>
+        <v>4.8632328446228001E-2</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40">
-        <v>2749.5</v>
+        <v>2750.4</v>
       </c>
       <c r="B40">
         <v>-14.03</v>
       </c>
       <c r="C40">
-        <v>2749.4554104296058</v>
+        <v>2748.3700350623285</v>
       </c>
       <c r="D40">
-        <v>-14.050911221091756</v>
+        <v>-13.981681530657232</v>
       </c>
       <c r="E40">
-        <v>-4.4589570394236944E-2</v>
+        <v>-2.0299649376715934</v>
       </c>
       <c r="F40">
-        <v>-2.091122109175636E-2</v>
+        <v>4.8318469342767401E-2</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41">
-        <v>2749.5</v>
+        <v>2750.4</v>
       </c>
       <c r="B41">
         <v>-12</v>
       </c>
       <c r="C41">
-        <v>2749.2344358429459</v>
+        <v>2748.4874229971083</v>
       </c>
       <c r="D41">
-        <v>-12.04589695471717</v>
+        <v>-11.99433930394064</v>
       </c>
       <c r="E41">
-        <v>-0.26556415705408654</v>
+        <v>-1.9125770028917941</v>
       </c>
       <c r="F41">
-        <v>-4.5896954717170146E-2</v>
+        <v>5.6606960593601485E-3</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42">
-        <v>2749.5</v>
+        <v>2750.4</v>
       </c>
       <c r="B42">
         <v>-10.029999999999999</v>
       </c>
       <c r="C42">
-        <v>2749.4998893147072</v>
+        <v>2747.7035864264926</v>
       </c>
       <c r="D42">
-        <v>-10.030194072421899</v>
+        <v>-10.012697007970367</v>
       </c>
       <c r="E42">
-        <v>-1.106852928387525E-4</v>
+        <v>-2.6964135735074706</v>
       </c>
       <c r="F42">
-        <v>-1.9407242190006002E-4</v>
+        <v>1.7302992029632591E-2</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43">
-        <v>2749.5</v>
+        <v>2750.4</v>
       </c>
       <c r="B43">
         <v>-8</v>
       </c>
       <c r="C43">
-        <v>2748.7132071956848</v>
+        <v>2747.3164279192038</v>
       </c>
       <c r="D43">
-        <v>-8.0147338445003236</v>
+        <v>-8.0093071267134235</v>
       </c>
       <c r="E43">
-        <v>-0.78679280431515508</v>
+        <v>-3.0835720807963298</v>
       </c>
       <c r="F43">
-        <v>-1.4733844500323556E-2</v>
+        <v>-9.3071267134234859E-3</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44">
-        <v>2749.5</v>
+        <v>2750.4</v>
       </c>
       <c r="B44">
         <v>-6</v>
       </c>
       <c r="C44">
-        <v>2749.3853553388881</v>
+        <v>2748.3471702531933</v>
       </c>
       <c r="D44">
-        <v>-6.0186669150374259</v>
+        <v>-6.0261365075537068</v>
       </c>
       <c r="E44">
-        <v>-0.11464466111192451</v>
+        <v>-2.0528297468067649</v>
       </c>
       <c r="F44">
-        <v>-1.8666915037425902E-2</v>
+        <v>-2.6136507553706778E-2</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45">
-        <v>2749.5</v>
+        <v>2750.4</v>
       </c>
       <c r="B45">
         <v>-4</v>
       </c>
       <c r="C45">
-        <v>2750.2947786779887</v>
+        <v>2749.0773090055327</v>
       </c>
       <c r="D45">
-        <v>-3.9935168442888607</v>
+        <v>-4.0418660701474414</v>
       </c>
       <c r="E45">
-        <v>0.79477867798868829</v>
+        <v>-1.3226909944673935</v>
       </c>
       <c r="F45">
-        <v>6.4831557111393323E-3</v>
+        <v>-4.186607014744137E-2</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46">
-        <v>2749.5</v>
+        <v>2750.4</v>
       </c>
       <c r="B46">
-        <v>-1.98</v>
+        <v>-2.0299999999999998</v>
       </c>
       <c r="C46">
-        <v>2750.8128912253887</v>
+        <v>2748.9370825810024</v>
       </c>
       <c r="D46">
-        <v>-1.9806552102388209</v>
+        <v>-2.0371192067750017</v>
       </c>
       <c r="E46">
-        <v>1.3128912253887393</v>
+        <v>-1.4629174189976766</v>
       </c>
       <c r="F46">
-        <v>-6.5521023882086915E-4</v>
+        <v>-7.119206775001885E-3</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47">
-        <v>2749.5</v>
+        <v>2750.4</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="C47">
-        <v>2749.7918441451538</v>
+        <v>2748.7077314832673</v>
       </c>
       <c r="D47">
-        <v>2.5404846738339076E-2</v>
+        <v>-9.1489176008927291E-3</v>
       </c>
       <c r="E47">
-        <v>0.2918441451538456</v>
+        <v>-1.6922685167328382</v>
       </c>
       <c r="F47">
-        <v>2.5404846738339076E-2</v>
+        <v>-3.914891760089273E-2</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48">
-        <v>2749.5</v>
+        <v>2750.4</v>
       </c>
       <c r="B48">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="C48">
-        <v>2749.7393376160185</v>
+        <v>2748.674918225131</v>
       </c>
       <c r="D48">
-        <v>2.0354180299546245</v>
+        <v>1.9633910988669123</v>
       </c>
       <c r="E48">
-        <v>0.23933761601847436</v>
+        <v>-1.7250817748690679</v>
       </c>
       <c r="F48">
-        <v>1.541802995462449E-2</v>
+        <v>-6.6089011330876524E-3</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49">
-        <v>2749.5</v>
+        <v>2750.4</v>
       </c>
       <c r="B49">
-        <v>4.0199999999999996</v>
+        <v>4.03</v>
       </c>
       <c r="C49">
-        <v>2750.3352916567646</v>
+        <v>2748.6410160519913</v>
       </c>
       <c r="D49">
-        <v>4.0204304925192247</v>
+        <v>3.9959522276313422</v>
       </c>
       <c r="E49">
-        <v>0.8352916567646389</v>
+        <v>-1.7589839480087903</v>
       </c>
       <c r="F49">
-        <v>4.3049251922511189E-4</v>
+        <v>-3.404777236865808E-2</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50">
-        <v>2749.5</v>
+        <v>2750.4</v>
       </c>
       <c r="B50">
-        <v>6.02</v>
+        <v>5.97</v>
       </c>
       <c r="C50">
-        <v>2750.5591666962755</v>
+        <v>2747.7361784643222</v>
       </c>
       <c r="D50">
-        <v>6.0091362289866757</v>
+        <v>5.9687435755562408</v>
       </c>
       <c r="E50">
-        <v>1.0591666962754971</v>
+        <v>-2.6638215356779256</v>
       </c>
       <c r="F50">
-        <v>-1.086377101332392E-2</v>
+        <v>-1.2564244437589522E-3</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51">
-        <v>2749.5</v>
+        <v>2750.4</v>
       </c>
       <c r="B51">
-        <v>8</v>
+        <v>7.97</v>
       </c>
       <c r="C51">
-        <v>2750.2141789424122</v>
+        <v>2747.8190505911966</v>
       </c>
       <c r="D51">
-        <v>7.971628433816262</v>
+        <v>7.9806858332119042</v>
       </c>
       <c r="E51">
-        <v>0.71417894241221802</v>
+        <v>-2.5809494088034626</v>
       </c>
       <c r="F51">
-        <v>-2.837156618373804E-2</v>
+        <v>1.0685833211904416E-2</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52">
-        <v>2749.5</v>
+        <v>2750.4</v>
       </c>
       <c r="B52">
-        <v>10.02</v>
+        <v>9.9700000000000006</v>
       </c>
       <c r="C52">
-        <v>2749.9480545370366</v>
+        <v>2747.9397171828664</v>
       </c>
       <c r="D52">
-        <v>9.9876813294592051</v>
+        <v>9.9847088430593605</v>
       </c>
       <c r="E52">
-        <v>0.44805453703656895</v>
+        <v>-2.4602828171337023</v>
       </c>
       <c r="F52">
-        <v>-3.2318670540794514E-2</v>
+        <v>1.4708843059359822E-2</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53">
-        <v>2749.5</v>
+        <v>2750.4</v>
       </c>
       <c r="B53">
-        <v>12.02</v>
+        <v>11.97</v>
       </c>
       <c r="C53">
-        <v>2749.2898800458761</v>
+        <v>2747.1726029565416</v>
       </c>
       <c r="D53">
-        <v>11.936086050305732</v>
+        <v>11.995185238840749</v>
       </c>
       <c r="E53">
-        <v>-0.21011995412391116</v>
+        <v>-3.2273970434584953</v>
       </c>
       <c r="F53">
-        <v>-8.3913949694267131E-2</v>
+        <v>2.5185238840748525E-2</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54">
-        <v>2749.5</v>
+        <v>2750.4</v>
       </c>
       <c r="B54">
-        <v>14.02</v>
+        <v>13.97</v>
       </c>
       <c r="C54">
-        <v>2750.2375048717986</v>
+        <v>2747.3637036443365</v>
       </c>
       <c r="D54">
-        <v>13.900958873376515</v>
+        <v>13.991962290533946</v>
       </c>
       <c r="E54">
-        <v>0.73750487179859192</v>
+        <v>-3.0362963556635805</v>
       </c>
       <c r="F54">
-        <v>-0.11904112662348432</v>
+        <v>2.1962290533945605E-2</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55">
-        <v>2749.5</v>
+        <v>2750.4</v>
       </c>
       <c r="B55">
-        <v>16</v>
+        <v>15.97</v>
       </c>
       <c r="C55">
-        <v>2751.7009922560592</v>
+        <v>2749.2658599628317</v>
       </c>
       <c r="D55">
-        <v>15.836407889643489</v>
+        <v>15.972001631911651</v>
       </c>
       <c r="E55">
-        <v>2.2009922560591804</v>
+        <v>-1.1341400371684358</v>
       </c>
       <c r="F55">
-        <v>-0.163592110356511</v>
+        <v>2.001631911650037E-3</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56">
-        <v>2849.2</v>
+        <v>2850.1</v>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
       <c r="C56">
-        <v>2850.0983865333251</v>
+        <v>2849.9179235458018</v>
       </c>
       <c r="D56">
-        <v>3.8738922662169446E-2</v>
+        <v>-3.6421778449669405E-3</v>
       </c>
       <c r="E56">
-        <v>0.89838653332526519</v>
+        <v>-0.18207645419806795</v>
       </c>
       <c r="F56">
-        <v>3.8738922662169446E-2</v>
+        <v>-3.6421778449669405E-3</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57">
-        <v>2849.2</v>
+        <v>2850.1</v>
       </c>
       <c r="B57">
-        <v>-15.98</v>
+        <v>-15.93</v>
       </c>
       <c r="C57">
-        <v>2849.7285587045858</v>
+        <v>2848.6472787741959</v>
       </c>
       <c r="D57">
-        <v>-15.973383765371253</v>
+        <v>-15.858481798428745</v>
       </c>
       <c r="E57">
-        <v>0.52855870458597565</v>
+        <v>-1.4527212258039981</v>
       </c>
       <c r="F57">
-        <v>6.6162346287477192E-3</v>
+        <v>7.1518201571254991E-2</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58">
-        <v>2849.2</v>
+        <v>2850.1</v>
       </c>
       <c r="B58">
-        <v>-14.02</v>
+        <v>-14.03</v>
       </c>
       <c r="C58">
-        <v>2848.9016207017821</v>
+        <v>2847.7399613608231</v>
       </c>
       <c r="D58">
-        <v>-14.01979248657409</v>
+        <v>-13.986133564037079</v>
       </c>
       <c r="E58">
-        <v>-0.29837929821769649</v>
+        <v>-2.3600386391767643</v>
       </c>
       <c r="F58">
-        <v>2.0751342590941135E-4</v>
+        <v>4.3866435962920391E-2</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59">
-        <v>2849.2</v>
+        <v>2850.1</v>
       </c>
       <c r="B59">
         <v>-12</v>
       </c>
       <c r="C59">
-        <v>2848.551414034253</v>
+        <v>2846.7874568712523</v>
       </c>
       <c r="D59">
-        <v>-12.005338905437585</v>
+        <v>-11.983585938638745</v>
       </c>
       <c r="E59">
-        <v>-0.64858596574686089</v>
+        <v>-3.3125431287476204</v>
       </c>
       <c r="F59">
-        <v>-5.3389054375845291E-3</v>
+        <v>1.6414061361254895E-2</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60">
-        <v>2849.2</v>
+        <v>2850.1</v>
       </c>
       <c r="B60">
-        <v>-10.02</v>
+        <v>-10</v>
       </c>
       <c r="C60">
-        <v>2849.3812437877164</v>
+        <v>2847.0819348685686</v>
       </c>
       <c r="D60">
-        <v>-10.020048765621887</v>
+        <v>-9.9965379348915064</v>
       </c>
       <c r="E60">
-        <v>0.18124378771653937</v>
+        <v>-3.0180651314312854</v>
       </c>
       <c r="F60">
-        <v>-4.8765621887270072E-5</v>
+        <v>3.4620651084935616E-3</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61">
-        <v>2849.2</v>
+        <v>2850.1</v>
       </c>
       <c r="B61">
-        <v>-8</v>
+        <v>-8.0299999999999994</v>
       </c>
       <c r="C61">
-        <v>2848.821944704745</v>
+        <v>2848.146347181369</v>
       </c>
       <c r="D61">
-        <v>-7.9923274915817055</v>
+        <v>-8.0220606262874288</v>
       </c>
       <c r="E61">
-        <v>-0.37805529525485326</v>
+        <v>-1.9536528186308715</v>
       </c>
       <c r="F61">
-        <v>7.6725084182944769E-3</v>
+        <v>7.9393737125705854E-3</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62">
-        <v>2849.2</v>
+        <v>2850.1</v>
       </c>
       <c r="B62">
         <v>-6</v>
       </c>
       <c r="C62">
-        <v>2849.1506367695392</v>
+        <v>2849.4346786306014</v>
       </c>
       <c r="D62">
-        <v>-5.9840897051362543</v>
+        <v>-6.0138214714228653</v>
       </c>
       <c r="E62">
-        <v>-4.9363230460585328E-2</v>
+        <v>-0.66532136939849806</v>
       </c>
       <c r="F62">
-        <v>1.5910294863745733E-2</v>
+        <v>-1.3821471422865272E-2</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63">
-        <v>2849.2</v>
+        <v>2850.1</v>
       </c>
       <c r="B63">
         <v>-4</v>
       </c>
       <c r="C63">
-        <v>2850.1772061304741</v>
+        <v>2848.3517200770093</v>
       </c>
       <c r="D63">
-        <v>-3.9806624766513399</v>
+        <v>-4.0224653176664678</v>
       </c>
       <c r="E63">
-        <v>0.9772061304743147</v>
+        <v>-1.748279922990605</v>
       </c>
       <c r="F63">
-        <v>1.9337523348660124E-2</v>
+        <v>-2.2465317666467755E-2</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64">
-        <v>2849.2</v>
+        <v>2850.1</v>
       </c>
       <c r="B64">
-        <v>-1.97</v>
+        <v>-2.0299999999999998</v>
       </c>
       <c r="C64">
-        <v>2851.7802538855103</v>
+        <v>2849.0934626298113</v>
       </c>
       <c r="D64">
-        <v>-1.9561954457496749</v>
+        <v>-2.0205963624271837</v>
       </c>
       <c r="E64">
-        <v>2.5802538855105013</v>
+        <v>-1.0065373701886529</v>
       </c>
       <c r="F64">
-        <v>1.3804554250325118E-2</v>
+        <v>9.4036375728161481E-3</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65">
-        <v>2849.2</v>
+        <v>2850.1</v>
       </c>
       <c r="B65">
-        <v>-0.02</v>
+        <v>0.03</v>
       </c>
       <c r="C65">
-        <v>2849.9596066604431</v>
+        <v>2849.5587031571308</v>
       </c>
       <c r="D65">
-        <v>3.9677431023136867E-2</v>
+        <v>1.0752310279362173E-2</v>
       </c>
       <c r="E65">
-        <v>0.75960666044329628</v>
+        <v>-0.54129684286908741</v>
       </c>
       <c r="F65">
-        <v>5.967743102313687E-2</v>
+        <v>-1.9247689720637826E-2</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66">
-        <v>2849.2</v>
+        <v>2850.1</v>
       </c>
       <c r="B66">
-        <v>2.0299999999999998</v>
+        <v>1.97</v>
       </c>
       <c r="C66">
-        <v>2850.7767929291372</v>
+        <v>2849.5245802407921</v>
       </c>
       <c r="D66">
-        <v>2.065179644732495</v>
+        <v>1.969943932370904</v>
       </c>
       <c r="E66">
-        <v>1.5767929291373548</v>
+        <v>-0.57541975920776167</v>
       </c>
       <c r="F66">
-        <v>3.5179644732495241E-2</v>
+        <v>-5.606762909593499E-5</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67">
-        <v>2849.2</v>
+        <v>2850.1</v>
       </c>
       <c r="B67">
         <v>4.03</v>
       </c>
       <c r="C67">
-        <v>2851.035358750411</v>
+        <v>2847.7842802788459</v>
       </c>
       <c r="D67">
-        <v>4.0501023545332906</v>
+        <v>3.9961698901165308</v>
       </c>
       <c r="E67">
-        <v>1.8353587504111601</v>
+        <v>-2.3157197211539824</v>
       </c>
       <c r="F67">
-        <v>2.0102354533290345E-2</v>
+        <v>-3.3830109883469461E-2</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68">
-        <v>2849.2</v>
+        <v>2850.1</v>
       </c>
       <c r="B68">
-        <v>6.03</v>
+        <v>5.97</v>
       </c>
       <c r="C68">
-        <v>2849.0838980469016</v>
+        <v>2847.8156594412708</v>
       </c>
       <c r="D68">
-        <v>6.0279970585175935</v>
+        <v>5.9735459201728611</v>
       </c>
       <c r="E68">
-        <v>-0.11610195309822302</v>
+        <v>-2.2843405587291272</v>
       </c>
       <c r="F68">
-        <v>-2.0029414824067615E-3</v>
+        <v>3.5459201728613721E-3</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69">
-        <v>2849.2</v>
+        <v>2850.1</v>
       </c>
       <c r="B69">
-        <v>8</v>
+        <v>7.97</v>
       </c>
       <c r="C69">
-        <v>2849.6359988669983</v>
+        <v>2846.5336296425971</v>
       </c>
       <c r="D69">
-        <v>8.0076462586029908</v>
+        <v>7.9826360320919783</v>
       </c>
       <c r="E69">
-        <v>0.43599886699848867</v>
+        <v>-3.566370357402775</v>
       </c>
       <c r="F69">
-        <v>7.6462586029908408E-3</v>
+        <v>1.26360320919785E-2</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70">
-        <v>2849.2</v>
+        <v>2850.1</v>
       </c>
       <c r="B70">
-        <v>10.029999999999999</v>
+        <v>9.9700000000000006</v>
       </c>
       <c r="C70">
-        <v>2848.8705213917024</v>
+        <v>2847.0690111416261</v>
       </c>
       <c r="D70">
-        <v>10.00682911221954</v>
+        <v>9.9951001348576103</v>
       </c>
       <c r="E70">
-        <v>-0.32947860829744968</v>
+        <v>-3.0309888583738029</v>
       </c>
       <c r="F70">
-        <v>-2.3170887780459282E-2</v>
+        <v>2.5100134857609646E-2</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71">
-        <v>2849.2</v>
+        <v>2850.1</v>
       </c>
       <c r="B71">
-        <v>12.03</v>
+        <v>11.97</v>
       </c>
       <c r="C71">
-        <v>2848.6383522469082</v>
+        <v>2845.6493281067005</v>
       </c>
       <c r="D71">
-        <v>11.955437445666885</v>
+        <v>11.991883509656214</v>
       </c>
       <c r="E71">
-        <v>-0.56164775309161996</v>
+        <v>-4.4506718932993863</v>
       </c>
       <c r="F71">
-        <v>-7.4562554333114761E-2</v>
+        <v>2.1883509656213107E-2</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72">
-        <v>2849.2</v>
+        <v>2850.1</v>
       </c>
       <c r="B72">
-        <v>14</v>
+        <v>13.97</v>
       </c>
       <c r="C72">
-        <v>2850.3150520891786</v>
+        <v>2849.1582147506033</v>
       </c>
       <c r="D72">
-        <v>13.897899062112783</v>
+        <v>13.992134893953867</v>
       </c>
       <c r="E72">
-        <v>1.1150520891787892</v>
+        <v>-0.94178524939661656</v>
       </c>
       <c r="F72">
-        <v>-0.10210093788721686</v>
+        <v>2.2134893953866808E-2</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73">
-        <v>2849.2</v>
+        <v>2850.1</v>
       </c>
       <c r="B73">
-        <v>16.03</v>
+        <v>15.97</v>
       </c>
       <c r="C73">
-        <v>2850.4636977130394</v>
+        <v>2849.358525157264</v>
       </c>
       <c r="D73">
-        <v>15.880069216175858</v>
+        <v>15.97661444294461</v>
       </c>
       <c r="E73">
-        <v>1.263697713039619</v>
+        <v>-0.74147484273589725</v>
       </c>
       <c r="F73">
-        <v>-0.14993078382414282</v>
+        <v>6.6144429446097774E-3</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74">
-        <v>2948.9</v>
+        <v>2949.8</v>
       </c>
       <c r="B74">
         <v>0</v>
       </c>
       <c r="C74">
-        <v>2950.0146266959059</v>
+        <v>2947.956491864797</v>
       </c>
       <c r="D74">
-        <v>3.8441655605237386E-2</v>
+        <v>7.8314524578326477E-3</v>
       </c>
       <c r="E74">
-        <v>1.1146266959058266</v>
+        <v>-1.8435081352031375</v>
       </c>
       <c r="F74">
-        <v>3.8441655605237386E-2</v>
+        <v>7.8314524578326477E-3</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75">
-        <v>2948.9</v>
+        <v>2949.8</v>
       </c>
       <c r="B75">
-        <v>-15.95</v>
+        <v>-15.9</v>
       </c>
       <c r="C75">
-        <v>2948.268970997497</v>
+        <v>2946.2830450774309</v>
       </c>
       <c r="D75">
-        <v>-15.959889447945912</v>
+        <v>-15.843284977411987</v>
       </c>
       <c r="E75">
-        <v>-0.63102900250305538</v>
+        <v>-3.5169549225693117</v>
       </c>
       <c r="F75">
-        <v>-9.8894479459126217E-3</v>
+        <v>5.6715022588013753E-2</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76">
-        <v>2948.9</v>
+        <v>2949.8</v>
       </c>
       <c r="B76">
-        <v>-14.02</v>
+        <v>-14.05</v>
       </c>
       <c r="C76">
-        <v>2947.7692703152293</v>
+        <v>2947.5597253111728</v>
       </c>
       <c r="D76">
-        <v>-14.039966398007229</v>
+        <v>-13.984206010398989</v>
       </c>
       <c r="E76">
-        <v>-1.130729684770813</v>
+        <v>-2.2402746888274123</v>
       </c>
       <c r="F76">
-        <v>-1.9966398007229103E-2</v>
+        <v>6.5793989601012015E-2</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77">
-        <v>2948.9</v>
+        <v>2949.8</v>
       </c>
       <c r="B77">
-        <v>-12.02</v>
+        <v>-12</v>
       </c>
       <c r="C77">
-        <v>2946.8119478862932</v>
+        <v>2946.8014587318353</v>
       </c>
       <c r="D77">
-        <v>-12.034153136027072</v>
+        <v>-11.966131011308674</v>
       </c>
       <c r="E77">
-        <v>-2.0880521137069081</v>
+        <v>-2.9985412681648995</v>
       </c>
       <c r="F77">
-        <v>-1.4153136027072577E-2</v>
+        <v>3.3868988691326152E-2</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78">
-        <v>2948.9</v>
+        <v>2949.8</v>
       </c>
       <c r="B78">
         <v>-10</v>
       </c>
       <c r="C78">
-        <v>2948.5433537676745</v>
+        <v>2947.5885383546602</v>
       </c>
       <c r="D78">
-        <v>-10.013709730132568</v>
+        <v>-9.9916487403229279</v>
       </c>
       <c r="E78">
-        <v>-0.35664623232560189</v>
+        <v>-2.2114616453400231</v>
       </c>
       <c r="F78">
-        <v>-1.3709730132568154E-2</v>
+        <v>8.3512596770720648E-3</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79">
-        <v>2948.9</v>
+        <v>2949.8</v>
       </c>
       <c r="B79">
-        <v>-8.02</v>
+        <v>-8.0299999999999994</v>
       </c>
       <c r="C79">
-        <v>2949.5047237880526</v>
+        <v>2946.9161393056024</v>
       </c>
       <c r="D79">
-        <v>-8.006058483128589</v>
+        <v>-8.0176784004537041</v>
       </c>
       <c r="E79">
-        <v>0.60472378805252447</v>
+        <v>-2.8838606943977538</v>
       </c>
       <c r="F79">
-        <v>1.3941516871410542E-2</v>
+        <v>1.2321599546295303E-2</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80">
-        <v>2948.9</v>
+        <v>2949.8</v>
       </c>
       <c r="B80">
-        <v>-5.97</v>
+        <v>-6</v>
       </c>
       <c r="C80">
-        <v>2949.5402280538942</v>
+        <v>2947.1741190773682</v>
       </c>
       <c r="D80">
-        <v>-5.9894101560719344</v>
+        <v>-5.9991497736845165</v>
       </c>
       <c r="E80">
-        <v>0.64022805389413406</v>
+        <v>-2.6258809226319499</v>
       </c>
       <c r="F80">
-        <v>-1.9410156071934637E-2</v>
+        <v>8.5022631548348215E-4</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81">
-        <v>2948.9</v>
+        <v>2949.8</v>
       </c>
       <c r="B81">
-        <v>-4.0199999999999996</v>
+        <v>-4</v>
       </c>
       <c r="C81">
-        <v>2950.0238476003201</v>
+        <v>2948.1957596972438</v>
       </c>
       <c r="D81">
-        <v>-3.99750022951355</v>
+        <v>-4.0099921861229388</v>
       </c>
       <c r="E81">
-        <v>1.1238476003200049</v>
+        <v>-1.6042403027563523</v>
       </c>
       <c r="F81">
-        <v>2.2499770486449577E-2</v>
+        <v>-9.9921861229388398E-3</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82">
-        <v>2948.9</v>
+        <v>2949.8</v>
       </c>
       <c r="B82">
-        <v>-1.97</v>
+        <v>-2</v>
       </c>
       <c r="C82">
-        <v>2950.5797190759454</v>
+        <v>2949.8939803090689</v>
       </c>
       <c r="D82">
-        <v>-1.9573611197793812</v>
+        <v>-2.0137439016273624</v>
       </c>
       <c r="E82">
-        <v>1.679719075945286</v>
+        <v>9.3980309068683709E-2</v>
       </c>
       <c r="F82">
-        <v>1.2638880220618764E-2</v>
+        <v>-1.3743901627362387E-2</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83">
-        <v>2948.9</v>
+        <v>2949.8</v>
       </c>
       <c r="B83">
         <v>0</v>
       </c>
       <c r="C83">
-        <v>2949.0460889683727</v>
+        <v>2947.5443953972626</v>
       </c>
       <c r="D83">
-        <v>3.9649626123777627E-2</v>
+        <v>-1.2166685755435584E-2</v>
       </c>
       <c r="E83">
-        <v>0.14608896837262364</v>
+        <v>-2.2556046027375487</v>
       </c>
       <c r="F83">
-        <v>3.9649626123777627E-2</v>
+        <v>-1.2166685755435584E-2</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84">
-        <v>2948.9</v>
+        <v>2949.8</v>
       </c>
       <c r="B84">
-        <v>2.0299999999999998</v>
+        <v>2</v>
       </c>
       <c r="C84">
-        <v>2951.3768658706927</v>
+        <v>2947.2775828949207</v>
       </c>
       <c r="D84">
-        <v>2.0532930053337024</v>
+        <v>1.9866049927150173</v>
       </c>
       <c r="E84">
-        <v>2.4768658706925635</v>
+        <v>-2.5224171050795121</v>
       </c>
       <c r="F84">
-        <v>2.3293005333702599E-2</v>
+        <v>-1.3395007284982663E-2</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85">
-        <v>2948.9</v>
+        <v>2949.8</v>
       </c>
       <c r="B85">
         <v>4</v>
       </c>
       <c r="C85">
-        <v>2949.7056652155429</v>
+        <v>2949.1563741220998</v>
       </c>
       <c r="D85">
-        <v>4.0272016963088024</v>
+        <v>3.9842262196371978</v>
       </c>
       <c r="E85">
-        <v>0.80566521554283099</v>
+        <v>-0.64362587790037651</v>
       </c>
       <c r="F85">
-        <v>2.7201696308802426E-2</v>
+        <v>-1.5773780362802192E-2</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86">
-        <v>2948.9</v>
+        <v>2949.8</v>
       </c>
       <c r="B86">
-        <v>6.03</v>
+        <v>5.97</v>
       </c>
       <c r="C86">
-        <v>2948.5208773676236</v>
+        <v>2948.5005316005977</v>
       </c>
       <c r="D86">
-        <v>6.0328593327170505</v>
+        <v>5.9835809579055912</v>
       </c>
       <c r="E86">
-        <v>-0.37912263237649313</v>
+        <v>-1.2994683994024854</v>
       </c>
       <c r="F86">
-        <v>2.8593327170503002E-3</v>
+        <v>1.358095790559144E-2</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87">
-        <v>2948.9</v>
+        <v>2949.8</v>
       </c>
       <c r="B87">
-        <v>8.0299999999999994</v>
+        <v>7.97</v>
       </c>
       <c r="C87">
-        <v>2948.4533062002643</v>
+        <v>2946.4591757645444</v>
       </c>
       <c r="D87">
-        <v>8.0184989658034187</v>
+        <v>7.9957322888630289</v>
       </c>
       <c r="E87">
-        <v>-0.44669379973584</v>
+        <v>-3.3408242354557842</v>
       </c>
       <c r="F87">
-        <v>-1.1501034196580662E-2</v>
+        <v>2.573228886302914E-2</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88">
-        <v>2948.9</v>
+        <v>2949.8</v>
       </c>
       <c r="B88">
-        <v>10.029999999999999</v>
+        <v>9.9700000000000006</v>
       </c>
       <c r="C88">
-        <v>2948.6139288727518</v>
+        <v>2945.9637121984188</v>
       </c>
       <c r="D88">
-        <v>9.9889131491232952</v>
+        <v>10.002377829483674</v>
       </c>
       <c r="E88">
-        <v>-0.28607112724830586</v>
+        <v>-3.8362878015814204</v>
       </c>
       <c r="F88">
-        <v>-4.1086850876704162E-2</v>
+        <v>3.2377829483673182E-2</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89">
-        <v>2948.9</v>
+        <v>2949.8</v>
       </c>
       <c r="B89">
-        <v>12</v>
+        <v>11.97</v>
       </c>
       <c r="C89">
-        <v>2948.0139280037683</v>
+        <v>2945.5377937268458</v>
       </c>
       <c r="D89">
-        <v>11.942608218485457</v>
+        <v>11.999397040060865</v>
       </c>
       <c r="E89">
-        <v>-0.88607199623174893</v>
+        <v>-4.2622062731543338</v>
       </c>
       <c r="F89">
-        <v>-5.7391781514542828E-2</v>
+        <v>2.9397040060864299E-2</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90">
-        <v>2948.9</v>
+        <v>2949.8</v>
       </c>
       <c r="B90">
-        <v>14.03</v>
+        <v>13.97</v>
       </c>
       <c r="C90">
-        <v>2947.6935885565717</v>
+        <v>2948.3961505035304</v>
       </c>
       <c r="D90">
-        <v>13.915481514822986</v>
+        <v>13.991159697927294</v>
       </c>
       <c r="E90">
-        <v>-1.206411443428351</v>
+        <v>-1.4038494964697747</v>
       </c>
       <c r="F90">
-        <v>-0.11451848517701357</v>
+        <v>2.1159697927293664E-2</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91">
-        <v>2948.9</v>
+        <v>2949.8</v>
       </c>
       <c r="B91">
-        <v>16</v>
+        <v>15.97</v>
       </c>
       <c r="C91">
-        <v>2949.0200260898132</v>
+        <v>2948.7831697492657</v>
       </c>
       <c r="D91">
-        <v>15.844675105324143</v>
+        <v>15.982708283247449</v>
       </c>
       <c r="E91">
-        <v>0.12002608981310914</v>
+        <v>-1.0168302507345288</v>
       </c>
       <c r="F91">
-        <v>-0.15532489467585719</v>
+        <v>1.2708283247448549E-2</v>
       </c>
     </row>
   </sheetData>
